--- a/Data/source/Japanese/Water footprint (Japanese) - for Eriko.xlsx
+++ b/Data/source/Japanese/Water footprint (Japanese) - for Eriko.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="550">
   <si>
     <t>Product</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Almonds, with shell</t>
   </si>
   <si>
-    <t>殻付きアーモンド</t>
+    <t>アーモンド(殻付き)</t>
   </si>
   <si>
     <t>Anise</t>
@@ -58,7 +58,7 @@
     <t>Apple juice</t>
   </si>
   <si>
-    <t>アップル・ジュース</t>
+    <t>アップルジュース</t>
   </si>
   <si>
     <t>りんごジュース</t>
@@ -67,13 +67,13 @@
     <t>Apples, dried</t>
   </si>
   <si>
-    <t>干しリンゴ</t>
+    <t>リンゴ(干し)</t>
   </si>
   <si>
     <t>Apples, fresh</t>
   </si>
   <si>
-    <t>新鮮なリンゴ</t>
+    <t>リンゴ(新鮮な)</t>
   </si>
   <si>
     <t>Apricots</t>
@@ -130,13 +130,13 @@
     <t>Barley, rolled or flaked grains</t>
   </si>
   <si>
-    <t>押し麦又はフレークの大麦</t>
+    <t>大麦（押し麦又はフレークの大麦）</t>
   </si>
   <si>
     <t>Beans, dry</t>
   </si>
   <si>
-    <t>乾燥した豆</t>
+    <t>豆(乾燥)</t>
   </si>
   <si>
     <t>Beans, green</t>
@@ -178,7 +178,7 @@
     <t>Horse beans</t>
   </si>
   <si>
-    <t>乾燥したソラマメ</t>
+    <t>ソラマメ（乾燥）</t>
   </si>
   <si>
     <t>Broccoli</t>
@@ -316,13 +316,13 @@
     <t>Chillies and peppers, dry</t>
   </si>
   <si>
-    <t>乾燥した唐辛子と胡椒</t>
+    <t>唐辛子（乾燥）と胡椒</t>
   </si>
   <si>
     <t>Chillies and peppers, green</t>
   </si>
   <si>
-    <t>新鮮な唐辛子と胡椒</t>
+    <t>唐辛子（新鮮）と胡椒</t>
   </si>
   <si>
     <t>Chocolate</t>
@@ -346,7 +346,7 @@
     <t>Clementines</t>
   </si>
   <si>
-    <t>クレメント</t>
+    <t>クレメンタイン</t>
   </si>
   <si>
     <t>Cloves</t>
@@ -364,7 +364,7 @@
     <t>Cocoa butter, fat and oil</t>
   </si>
   <si>
-    <t>ココアバター,脂肪と油</t>
+    <t>ココアバター(脂肪と油)</t>
   </si>
   <si>
     <t>Cocoa paste</t>
@@ -409,13 +409,16 @@
     <t>Coffee, green</t>
   </si>
   <si>
-    <t>新鮮なコーヒー</t>
+    <t>コーヒーの生豆</t>
+  </si>
+  <si>
+    <t>グリーンコーヒー</t>
   </si>
   <si>
     <t>Coffee, roasted</t>
   </si>
   <si>
-    <t>焙煎コーヒー</t>
+    <t>コーヒー豆（焙煎）</t>
   </si>
   <si>
     <t>コプラ</t>
@@ -439,6 +442,9 @@
     <t>綿織物</t>
   </si>
   <si>
+    <t>綿布、木綿織</t>
+  </si>
+  <si>
     <t>Cotton lint</t>
   </si>
   <si>
@@ -466,7 +472,10 @@
     <t>Cow peas, dry</t>
   </si>
   <si>
-    <t>乾燥ささげ豆</t>
+    <t>ささげ豆（乾燥）</t>
+  </si>
+  <si>
+    <t>乾燥カウピー</t>
   </si>
   <si>
     <t>Cranberries</t>
@@ -487,7 +496,7 @@
     <t>Currants</t>
   </si>
   <si>
-    <t>小粒干しブドウ</t>
+    <t>干しブドウ</t>
   </si>
   <si>
     <t>Dates</t>
@@ -502,13 +511,13 @@
     <t>Dried cassava</t>
   </si>
   <si>
-    <t>乾燥カッサバ</t>
+    <t>カッサバ（乾燥）</t>
   </si>
   <si>
     <t>Dry pasta</t>
   </si>
   <si>
-    <t>乾燥パスタ</t>
+    <t>パスタ（乾燥）</t>
   </si>
   <si>
     <t>Egg</t>
@@ -529,6 +538,9 @@
     <t>ナス</t>
   </si>
   <si>
+    <t>茄子</t>
+  </si>
+  <si>
     <t>Fennel</t>
   </si>
   <si>
@@ -538,7 +550,7 @@
     <t>Figs</t>
   </si>
   <si>
-    <t>いちじく</t>
+    <t>イチジク</t>
   </si>
   <si>
     <t>Flax fibre</t>
@@ -556,6 +568,9 @@
     <t>Fructose</t>
   </si>
   <si>
+    <t>果糖</t>
+  </si>
+  <si>
     <t>フルクトース</t>
   </si>
   <si>
@@ -565,6 +580,9 @@
     <t>ガーリック</t>
   </si>
   <si>
+    <t>にんにく、ニンニク</t>
+  </si>
+  <si>
     <t>Garlic powder</t>
   </si>
   <si>
@@ -580,6 +598,9 @@
     <t>Ginger</t>
   </si>
   <si>
+    <t>しょうが</t>
+  </si>
+  <si>
     <t>ジンジャー</t>
   </si>
   <si>
@@ -589,6 +610,9 @@
     <t>Chevon, cabrito, capretto</t>
   </si>
   <si>
+    <t>羊肉</t>
+  </si>
+  <si>
     <t>ヤギの肉</t>
   </si>
   <si>
@@ -598,12 +622,18 @@
     <t>グズベリー</t>
   </si>
   <si>
+    <t>スグリ</t>
+  </si>
+  <si>
     <t>Gourds</t>
   </si>
   <si>
     <t>ひょうたん</t>
   </si>
   <si>
+    <t>ウリ、瓜</t>
+  </si>
+  <si>
     <t>Grape wines</t>
   </si>
   <si>
@@ -613,6 +643,9 @@
     <t>ぶどう酒</t>
   </si>
   <si>
+    <t>葡萄酒</t>
+  </si>
+  <si>
     <t>Grapefruit</t>
   </si>
   <si>
@@ -637,7 +670,7 @@
     <t>Grapes, dried</t>
   </si>
   <si>
-    <t>干ぶどう</t>
+    <t>ぶどう（干し）</t>
   </si>
   <si>
     <t>Green and black tea</t>
@@ -655,7 +688,7 @@
     <t>Groundnuts in shell</t>
   </si>
   <si>
-    <t>殻付き落花生</t>
+    <t>落花生（殻付き）</t>
   </si>
   <si>
     <t>殻付きピーナッツ</t>
@@ -664,7 +697,7 @@
     <t>Groundnuts shelled</t>
   </si>
   <si>
-    <t>殻なし落花生</t>
+    <t>落花生（殻なし）</t>
   </si>
   <si>
     <t>殻なしピーナッツ</t>
@@ -679,13 +712,13 @@
     <t>Hazelnuts, shelled or peeled</t>
   </si>
   <si>
-    <t>殻付き又は殻なしヘーゼルナッツ</t>
+    <t>ヘーゼルナッツ（殻付き又は殻なし）</t>
   </si>
   <si>
     <t>Hazelnuts, with shell</t>
   </si>
   <si>
-    <t>殻付きヘーゼルナッツ</t>
+    <t>ヘーゼルナッツ（殻付き）</t>
   </si>
   <si>
     <t>Hemp fibre</t>
@@ -697,7 +730,7 @@
     <t>Hempseed</t>
   </si>
   <si>
-    <t>麻</t>
+    <t>麻の実</t>
   </si>
   <si>
     <t>Hop cones</t>
@@ -718,15 +751,21 @@
     <t>ジュート</t>
   </si>
   <si>
+    <t>ジュートの繊維</t>
+  </si>
+  <si>
     <t>Kiwi fruit</t>
   </si>
   <si>
-    <t>キウイフルーツ</t>
+    <t>キウイ</t>
   </si>
   <si>
     <t>Kola nuts</t>
   </si>
   <si>
+    <t>コーラの木の実</t>
+  </si>
+  <si>
     <t>コーラナッツ</t>
   </si>
   <si>
@@ -736,7 +775,7 @@
     <t>Sheep meat, hogget, mutton</t>
   </si>
   <si>
-    <t>ラム</t>
+    <t>子羊の肉</t>
   </si>
   <si>
     <t>ラム肉</t>
@@ -760,6 +799,9 @@
     <t>レンズ豆</t>
   </si>
   <si>
+    <t>ヒラマメ</t>
+  </si>
+  <si>
     <t>Lettuce</t>
   </si>
   <si>
@@ -790,7 +832,7 @@
     <t>Maize flour</t>
   </si>
   <si>
-    <t>トウモロコシの粉</t>
+    <t>トウモロコシ粉</t>
   </si>
   <si>
     <t>Maize groats and meal</t>
@@ -814,19 +856,19 @@
     <t>Maize, green</t>
   </si>
   <si>
-    <t>新鮮なトウモロコシ</t>
+    <t>トウモロコシ（新鮮）</t>
   </si>
   <si>
     <t>Malt, not roasted</t>
   </si>
   <si>
-    <t>焙煎しない麦芽</t>
+    <t>麦芽（未焙煎）</t>
   </si>
   <si>
     <t>Malt, roasted</t>
   </si>
   <si>
-    <t>焙煎麦芽</t>
+    <t>麦芽（焙煎）</t>
   </si>
   <si>
     <t>Mandarins</t>
@@ -835,6 +877,9 @@
     <t>みかん</t>
   </si>
   <si>
+    <t>蜜柑</t>
+  </si>
+  <si>
     <t>Mangoes</t>
   </si>
   <si>
@@ -865,6 +910,9 @@
     <t>キャッサバ</t>
   </si>
   <si>
+    <t>マニオク</t>
+  </si>
+  <si>
     <t>Manioc starch</t>
   </si>
   <si>
@@ -889,19 +937,25 @@
     <t>Milk powder</t>
   </si>
   <si>
+    <t>牛乳粉</t>
+  </si>
+  <si>
     <t>ミルクパウダー</t>
   </si>
   <si>
     <t>Millet</t>
   </si>
   <si>
-    <t>ミレー</t>
+    <t>キビ</t>
   </si>
   <si>
     <t>Mustard seeds</t>
   </si>
   <si>
-    <t>カラシナの種子</t>
+    <t>カラシの種子</t>
+  </si>
+  <si>
+    <t>からし種</t>
   </si>
   <si>
     <t>Natural rubber</t>
@@ -940,13 +994,16 @@
     <t>Oats, rolled or flaked grains</t>
   </si>
   <si>
-    <t>オート麦フレーク,粒または</t>
+    <t>オート麦フレークまたは粒</t>
   </si>
   <si>
     <t>Oil palm</t>
   </si>
   <si>
-    <t>オイルパーム</t>
+    <t>アブラヤシ</t>
+  </si>
+  <si>
+    <t>油椰子</t>
   </si>
   <si>
     <t>Okra</t>
@@ -964,7 +1021,7 @@
     <t>Olive oil, virgin</t>
   </si>
   <si>
-    <t>オリーブオイル,バージン</t>
+    <t>バージンオリーブオイル</t>
   </si>
   <si>
     <t>Olives</t>
@@ -976,7 +1033,7 @@
     <t>Onions, dry</t>
   </si>
   <si>
-    <t>乾燥したタマネギ</t>
+    <t>タマネギ（乾燥）</t>
   </si>
   <si>
     <t>Onions, green</t>
@@ -985,13 +1042,13 @@
     <t>Shallots</t>
   </si>
   <si>
-    <t>新鮮なタマネギ</t>
+    <t>タマネギ（新鮮）</t>
   </si>
   <si>
     <t>Orange juice</t>
   </si>
   <si>
-    <t>オレンジ・ジュース</t>
+    <t>オレンジジュース</t>
   </si>
   <si>
     <t>Oranges</t>
@@ -1021,6 +1078,9 @@
     <t>パームオイル</t>
   </si>
   <si>
+    <t>パーム油</t>
+  </si>
+  <si>
     <t>Papayas</t>
   </si>
   <si>
@@ -1033,7 +1093,7 @@
     <t>桃</t>
   </si>
   <si>
-    <t>もも,モモ</t>
+    <t>もも</t>
   </si>
   <si>
     <t>Pears</t>
@@ -1048,19 +1108,19 @@
     <t>Peas, dry</t>
   </si>
   <si>
-    <t>乾燥したエンドウ豆</t>
+    <t>エンドウ豆（乾燥）</t>
   </si>
   <si>
     <t>Peas, green</t>
   </si>
   <si>
-    <t>新鮮なエンドウ豆</t>
+    <t>エンドウ豆（新鮮）</t>
   </si>
   <si>
     <t>Peeled tomatoes</t>
   </si>
   <si>
-    <t>皮をむいたトマト</t>
+    <t>トマト（皮むき）</t>
   </si>
   <si>
     <t>Pepper</t>
@@ -1084,10 +1144,13 @@
     <t>キマメ</t>
   </si>
   <si>
+    <t>ハトエンドウ</t>
+  </si>
+  <si>
     <t>Pineapple juice</t>
   </si>
   <si>
-    <t>パイナップル・ジュース</t>
+    <t>パイナップルジュース</t>
   </si>
   <si>
     <t>Pineapples</t>
@@ -1105,7 +1168,10 @@
     <t>Plantains</t>
   </si>
   <si>
-    <t>プランチーノ</t>
+    <t>オオバコ</t>
+  </si>
+  <si>
+    <t>大葉子</t>
   </si>
   <si>
     <t>Plums</t>
@@ -1114,6 +1180,9 @@
     <t>プラム</t>
   </si>
   <si>
+    <t>セイヨウスモモ</t>
+  </si>
+  <si>
     <t>Poppy seeds</t>
   </si>
   <si>
@@ -1141,7 +1210,7 @@
     <t>Potato flour and meal</t>
   </si>
   <si>
-    <t>ジャガイモの粉とミール</t>
+    <t>ジャガイモ粉とミール</t>
   </si>
   <si>
     <t>Potato starch</t>
@@ -1162,16 +1231,25 @@
     <t>カボチャ</t>
   </si>
   <si>
+    <t>南瓜</t>
+  </si>
+  <si>
     <t>Ramie</t>
   </si>
   <si>
     <t>ラミー</t>
   </si>
   <si>
+    <t>真麻</t>
+  </si>
+  <si>
     <t>Rape oil</t>
   </si>
   <si>
-    <t>ナタネ油</t>
+    <t>菜種油</t>
+  </si>
+  <si>
+    <t>種油</t>
   </si>
   <si>
     <t>Rapeseed</t>
@@ -1189,13 +1267,13 @@
     <t>Raw sugar, beet</t>
   </si>
   <si>
-    <t>原料糖,ビート</t>
+    <t>原料糖</t>
   </si>
   <si>
     <t>Raw sugar, cane</t>
   </si>
   <si>
-    <t>原料糖,きび</t>
+    <t>原料糖きび</t>
   </si>
   <si>
     <t>Refined sugar</t>
@@ -1207,7 +1285,7 @@
     <t>Rice flour</t>
   </si>
   <si>
-    <t>米の粉</t>
+    <t>米粉</t>
   </si>
   <si>
     <t>Rice groats and meal</t>
@@ -1255,6 +1333,9 @@
     <t>ベニバナ種子</t>
   </si>
   <si>
+    <t>サフラワ種子</t>
+  </si>
+  <si>
     <t>Seed cotton</t>
   </si>
   <si>
@@ -1306,6 +1387,9 @@
     <t>サワーチェリー</t>
   </si>
   <si>
+    <t>酸っぱいさくらんぼ</t>
+  </si>
+  <si>
     <t>Soy milk</t>
   </si>
   <si>
@@ -1366,13 +1450,16 @@
     <t>イチゴ</t>
   </si>
   <si>
-    <t>苺</t>
+    <t>いちご、苺</t>
   </si>
   <si>
     <t>String beans</t>
   </si>
   <si>
-    <t>ストリング豆</t>
+    <t>サヤエンドウ</t>
+  </si>
+  <si>
+    <t>さや豆</t>
   </si>
   <si>
     <t>Sugar beet</t>
@@ -1381,6 +1468,9 @@
     <t>サトウダイコン</t>
   </si>
   <si>
+    <t>テンサイ、甜菜</t>
+  </si>
+  <si>
     <t>Sugar cane</t>
   </si>
   <si>
@@ -1450,6 +1540,9 @@
     <t>タバコ</t>
   </si>
   <si>
+    <t>煙草</t>
+  </si>
+  <si>
     <t>Tomato juice</t>
   </si>
   <si>
@@ -1459,7 +1552,7 @@
     <t>Tomato juice, concentrated</t>
   </si>
   <si>
-    <t>濃縮トマトジュース</t>
+    <t>トマトジュース（濃縮）</t>
   </si>
   <si>
     <t>Tomato ketchup</t>
@@ -1483,7 +1576,7 @@
     <t>Tomato, dried</t>
   </si>
   <si>
-    <t>干しトマト</t>
+    <t>トマト（乾燥）</t>
   </si>
   <si>
     <t>Tomatoes</t>
@@ -1501,19 +1594,19 @@
     <t>Vanilla beans</t>
   </si>
   <si>
-    <t>バニラ豆</t>
+    <t>バニラビーンズ</t>
   </si>
   <si>
     <t>Walnuts, shelled or peeled</t>
   </si>
   <si>
-    <t>殻付き又は殻なしクルミ</t>
+    <t>クルミ（殻付き又は殻なし）</t>
   </si>
   <si>
     <t>Walnuts, with shell</t>
   </si>
   <si>
-    <t>殻付きクルミ</t>
+    <t>クルミ（殻付き）</t>
   </si>
   <si>
     <t>Watermelons</t>
@@ -1522,6 +1615,9 @@
     <t>スイカ</t>
   </si>
   <si>
+    <t>西瓜</t>
+  </si>
+  <si>
     <t>Wheat</t>
   </si>
   <si>
@@ -1531,7 +1627,7 @@
     <t>Wheat bread</t>
   </si>
   <si>
-    <t>小麦のパン</t>
+    <t>小麦パン</t>
   </si>
   <si>
     <t>Wheat flour</t>
@@ -1544,6 +1640,9 @@
   </si>
   <si>
     <t>小麦グルテン</t>
+  </si>
+  <si>
+    <t>小麦麩質</t>
   </si>
   <si>
     <t>Wheat pellets</t>
@@ -1615,7 +1714,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1643,6 +1742,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -2518,18 +2620,20 @@
       <c r="D59" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="5">
         <v>58.0</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E60" s="9"/>
     </row>
@@ -2542,7 +2646,7 @@
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E61" s="9"/>
     </row>
@@ -2551,11 +2655,11 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E62" s="9"/>
     </row>
@@ -2564,11 +2668,11 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E63" s="9"/>
     </row>
@@ -2577,24 +2681,26 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="5">
         <v>63.0</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E65" s="9"/>
     </row>
@@ -2603,11 +2709,11 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E66" s="9"/>
     </row>
@@ -2616,11 +2722,11 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E67" s="9"/>
     </row>
@@ -2629,11 +2735,11 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E68" s="9"/>
     </row>
@@ -2642,24 +2748,26 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="9"/>
+        <v>153</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="5">
         <v>68.0</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E70" s="9"/>
     </row>
@@ -2668,14 +2776,14 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72">
@@ -2683,11 +2791,11 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E72" s="9"/>
     </row>
@@ -2696,14 +2804,14 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74">
@@ -2711,11 +2819,11 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E74" s="9"/>
     </row>
@@ -2724,11 +2832,11 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E75" s="9"/>
     </row>
@@ -2737,14 +2845,14 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77">
@@ -2752,26 +2860,28 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E77" s="9"/>
+        <v>174</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="5">
         <v>76.0</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E78" s="9"/>
     </row>
@@ -2780,24 +2890,24 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E79" s="9"/>
+        <v>179</v>
+      </c>
+      <c r="E79" s="8"/>
     </row>
     <row r="80">
       <c r="A80" s="5">
         <v>78.0</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E80" s="9"/>
     </row>
@@ -2806,11 +2916,11 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E81" s="9"/>
     </row>
@@ -2819,37 +2929,41 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E82" s="9"/>
+        <v>185</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="5">
+      <c r="A83" s="10">
         <v>81.0</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E83" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="5">
         <v>82.0</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="8" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E84" s="9"/>
     </row>
@@ -2858,11 +2972,11 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E85" s="9"/>
     </row>
@@ -2871,80 +2985,90 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E86" s="9"/>
+        <v>195</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="5">
         <v>85.0</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E87" s="9"/>
+        <v>199</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="5">
         <v>86.0</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E88" s="9"/>
+        <v>202</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="5">
         <v>87.0</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E89" s="9"/>
+        <v>205</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="5">
         <v>88.0</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E90" s="9"/>
+        <v>209</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="5">
         <v>89.0</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E91" s="9"/>
     </row>
@@ -2953,11 +3077,11 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E92" s="9"/>
     </row>
@@ -2966,14 +3090,14 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94">
@@ -2981,11 +3105,11 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E94" s="9"/>
     </row>
@@ -2994,11 +3118,11 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E95" s="9"/>
     </row>
@@ -3007,11 +3131,11 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E96" s="9"/>
     </row>
@@ -3020,14 +3144,14 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98">
@@ -3035,14 +3159,14 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99">
@@ -3050,11 +3174,11 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E99" s="9"/>
     </row>
@@ -3063,11 +3187,11 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E100" s="9"/>
     </row>
@@ -3076,11 +3200,11 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="8" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E101" s="9"/>
     </row>
@@ -3089,11 +3213,11 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="8" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E102" s="9"/>
     </row>
@@ -3102,11 +3226,11 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="8" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E103" s="9"/>
     </row>
@@ -3115,11 +3239,11 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="8" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E104" s="9"/>
     </row>
@@ -3128,11 +3252,11 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="8" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E105" s="9"/>
     </row>
@@ -3141,24 +3265,26 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E106" s="9"/>
+        <v>245</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="5">
         <v>105.0</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="8" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E107" s="9"/>
     </row>
@@ -3167,29 +3293,31 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E108" s="9"/>
+        <v>250</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="5">
         <v>107.0</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110">
@@ -3197,11 +3325,11 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="8" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E110" s="9"/>
     </row>
@@ -3210,11 +3338,11 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="8" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E111" s="9"/>
     </row>
@@ -3223,24 +3351,26 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E112" s="9"/>
+        <v>261</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="5">
         <v>111.0</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="E113" s="9"/>
     </row>
@@ -3249,11 +3379,11 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="8" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E114" s="9"/>
     </row>
@@ -3262,11 +3392,11 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="8" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E115" s="9"/>
     </row>
@@ -3275,13 +3405,13 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E116" s="9"/>
     </row>
@@ -3290,13 +3420,13 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E117" s="9"/>
     </row>
@@ -3305,13 +3435,13 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E118" s="9"/>
     </row>
@@ -3320,13 +3450,13 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E119" s="9"/>
     </row>
@@ -3335,13 +3465,13 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E120" s="9"/>
     </row>
@@ -3350,13 +3480,13 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E121" s="9"/>
     </row>
@@ -3365,11 +3495,11 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="8" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E122" s="9"/>
     </row>
@@ -3378,11 +3508,11 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="8" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E123" s="9"/>
     </row>
@@ -3391,24 +3521,26 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E124" s="9"/>
+        <v>287</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="5">
         <v>123.0</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="8" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="E125" s="9"/>
     </row>
@@ -3417,11 +3549,11 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="8" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E126" s="9"/>
     </row>
@@ -3430,13 +3562,13 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="E127" s="9"/>
     </row>
@@ -3445,28 +3577,30 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E128" s="9"/>
+        <v>298</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="5">
         <v>127.0</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E129" s="9"/>
     </row>
@@ -3475,11 +3609,11 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="8" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E130" s="9"/>
     </row>
@@ -3488,14 +3622,14 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="8" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132">
@@ -3503,24 +3637,26 @@
         <v>130.0</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E132" s="9"/>
+        <v>308</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="5">
         <v>131.0</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="8" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="E133" s="9"/>
     </row>
@@ -3529,24 +3665,26 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E134" s="9"/>
+        <v>313</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="5">
         <v>133.0</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E135" s="9"/>
     </row>
@@ -3555,11 +3693,11 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="8" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="E136" s="9"/>
     </row>
@@ -3568,13 +3706,13 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="E137" s="9"/>
     </row>
@@ -3583,11 +3721,11 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="8" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="E138" s="9"/>
     </row>
@@ -3596,11 +3734,11 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="8" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="E139" s="9"/>
     </row>
@@ -3609,11 +3747,11 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="8" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="E140" s="9"/>
     </row>
@@ -3622,24 +3760,26 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E141" s="9"/>
+        <v>329</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="5">
         <v>140.0</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="8" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="E142" s="9"/>
     </row>
@@ -3648,11 +3788,11 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="8" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="E143" s="9"/>
     </row>
@@ -3661,11 +3801,11 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="8" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="E144" s="9"/>
     </row>
@@ -3674,11 +3814,11 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="8" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="E145" s="9"/>
     </row>
@@ -3687,11 +3827,11 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="8" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="E146" s="9"/>
     </row>
@@ -3700,13 +3840,13 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="E147" s="9"/>
     </row>
@@ -3715,11 +3855,11 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="8" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="E148" s="9"/>
     </row>
@@ -3728,11 +3868,11 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="8" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="E149" s="9"/>
     </row>
@@ -3741,13 +3881,13 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="E150" s="9"/>
     </row>
@@ -3756,11 +3896,11 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="8" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="E151" s="9"/>
     </row>
@@ -3769,24 +3909,26 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E152" s="9"/>
+        <v>354</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="5">
         <v>151.0</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="8" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="E153" s="9"/>
     </row>
@@ -3795,14 +3937,14 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="8" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
     </row>
     <row r="155">
@@ -3810,14 +3952,14 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="8" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="156">
@@ -3825,11 +3967,11 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="8" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="E156" s="9"/>
     </row>
@@ -3838,11 +3980,11 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="8" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="E157" s="9"/>
     </row>
@@ -3851,11 +3993,11 @@
         <v>156.0</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="8" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="E158" s="9"/>
     </row>
@@ -3864,14 +4006,14 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="8" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
     </row>
     <row r="160">
@@ -3879,11 +4021,11 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="8" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="E160" s="9"/>
     </row>
@@ -3892,24 +4034,26 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E161" s="9"/>
+        <v>376</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="5">
         <v>160.0</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="8" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="E162" s="9"/>
     </row>
@@ -3918,11 +4062,11 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="8" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="E163" s="9"/>
     </row>
@@ -3931,11 +4075,11 @@
         <v>162.0</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="8" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="E164" s="9"/>
     </row>
@@ -3944,37 +4088,41 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E165" s="9"/>
+        <v>385</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="5">
         <v>164.0</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="E166" s="9"/>
+        <v>388</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="5">
         <v>165.0</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="8" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="E167" s="9"/>
     </row>
@@ -3983,16 +4131,16 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="169">
@@ -4000,11 +4148,11 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="8" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="E169" s="9"/>
     </row>
@@ -4013,11 +4161,11 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="8" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="E170" s="9"/>
     </row>
@@ -4026,11 +4174,11 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="8" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="E171" s="9"/>
     </row>
@@ -4039,11 +4187,11 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="8" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="E172" s="9"/>
     </row>
@@ -4052,50 +4200,56 @@
         <v>171.0</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E173" s="9"/>
+        <v>405</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="5">
         <v>172.0</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E174" s="9"/>
+        <v>408</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="5">
         <v>173.0</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E175" s="9"/>
+        <v>411</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="5">
         <v>174.0</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="8" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="E176" s="9"/>
     </row>
@@ -4104,11 +4258,11 @@
         <v>175.0</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="8" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="E177" s="9"/>
     </row>
@@ -4117,11 +4271,11 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="8" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="E178" s="9"/>
     </row>
@@ -4130,11 +4284,11 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="8" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="E179" s="9"/>
     </row>
@@ -4143,11 +4297,11 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="8" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="E180" s="9"/>
     </row>
@@ -4156,11 +4310,11 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="8" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="E181" s="9"/>
     </row>
@@ -4169,11 +4323,11 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="8" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="E182" s="9"/>
     </row>
@@ -4182,11 +4336,11 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="8" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="E183" s="9"/>
     </row>
@@ -4195,13 +4349,13 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="E184" s="9"/>
     </row>
@@ -4210,11 +4364,11 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="8" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="E185" s="9"/>
     </row>
@@ -4223,11 +4377,11 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="8" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="E186" s="9"/>
     </row>
@@ -4236,11 +4390,11 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="8" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="E187" s="9"/>
     </row>
@@ -4249,40 +4403,44 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E188" s="9"/>
+        <v>439</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="5">
         <v>187.0</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E189" s="9"/>
+        <v>442</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="5">
         <v>188.0</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="8" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191">
@@ -4290,11 +4448,11 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="8" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="E191" s="9"/>
     </row>
@@ -4303,11 +4461,11 @@
         <v>190.0</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="8" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="E192" s="9"/>
     </row>
@@ -4316,11 +4474,11 @@
         <v>191.0</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="8" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="E193" s="9"/>
     </row>
@@ -4329,11 +4487,11 @@
         <v>192.0</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="8" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="E194" s="9"/>
     </row>
@@ -4342,11 +4500,11 @@
         <v>193.0</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="8" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="E195" s="9"/>
     </row>
@@ -4355,24 +4513,26 @@
         <v>194.0</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E196" s="9"/>
+        <v>457</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="5">
         <v>195.0</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="8" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="E197" s="9"/>
     </row>
@@ -4381,11 +4541,11 @@
         <v>196.0</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="8" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="E198" s="9"/>
     </row>
@@ -4394,11 +4554,11 @@
         <v>197.0</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="8" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="E199" s="9"/>
     </row>
@@ -4407,11 +4567,11 @@
         <v>198.0</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="8" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="E200" s="9"/>
     </row>
@@ -4420,11 +4580,11 @@
         <v>199.0</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="8" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="E201" s="9"/>
     </row>
@@ -4433,11 +4593,11 @@
         <v>200.0</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="8" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="E202" s="9"/>
     </row>
@@ -4446,11 +4606,11 @@
         <v>201.0</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="8" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="E203" s="9"/>
     </row>
@@ -4459,11 +4619,11 @@
         <v>202.0</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="8" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="E204" s="9"/>
     </row>
@@ -4472,11 +4632,11 @@
         <v>203.0</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="8" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="E205" s="9"/>
     </row>
@@ -4485,14 +4645,14 @@
         <v>204.0</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="8" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
     </row>
     <row r="207">
@@ -4500,40 +4660,44 @@
         <v>205.0</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E207" s="9"/>
+        <v>481</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="5">
         <v>206.0</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E208" s="9"/>
+        <v>484</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="5">
         <v>207.0</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="8" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
     </row>
     <row r="210">
@@ -4541,14 +4705,14 @@
         <v>208.0</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="8" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
     </row>
     <row r="211">
@@ -4556,14 +4720,14 @@
         <v>209.0</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="8" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212">
@@ -4571,14 +4735,14 @@
         <v>210.0</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="8" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
     </row>
     <row r="213">
@@ -4586,14 +4750,14 @@
         <v>211.0</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="8" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
     </row>
     <row r="214">
@@ -4601,11 +4765,11 @@
         <v>212.0</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="C214" s="7"/>
       <c r="D214" s="8" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="E214" s="9"/>
     </row>
@@ -4614,11 +4778,11 @@
         <v>213.0</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="C215" s="7"/>
       <c r="D215" s="8" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="E215" s="9"/>
     </row>
@@ -4627,13 +4791,13 @@
         <v>214.0</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="E216" s="9"/>
     </row>
@@ -4642,24 +4806,26 @@
         <v>215.0</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="C217" s="7"/>
       <c r="D217" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="E217" s="9"/>
+        <v>508</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="5">
         <v>216.0</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="C218" s="7"/>
       <c r="D218" s="8" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="E218" s="9"/>
     </row>
@@ -4668,11 +4834,11 @@
         <v>217.0</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="C219" s="7"/>
       <c r="D219" s="8" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="E219" s="9"/>
     </row>
@@ -4681,11 +4847,11 @@
         <v>218.0</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="C220" s="7"/>
       <c r="D220" s="8" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="E220" s="9"/>
     </row>
@@ -4694,11 +4860,11 @@
         <v>219.0</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="C221" s="7"/>
       <c r="D221" s="8" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="E221" s="9"/>
     </row>
@@ -4707,11 +4873,11 @@
         <v>220.0</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="8" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="E222" s="9"/>
     </row>
@@ -4720,11 +4886,11 @@
         <v>221.0</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="C223" s="7"/>
       <c r="D223" s="8" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="E223" s="9"/>
     </row>
@@ -4733,11 +4899,11 @@
         <v>222.0</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="8" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="E224" s="9"/>
     </row>
@@ -4746,11 +4912,11 @@
         <v>223.0</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="8" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="E225" s="9"/>
     </row>
@@ -4759,11 +4925,11 @@
         <v>224.0</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="8" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="E226" s="9"/>
     </row>
@@ -4772,11 +4938,11 @@
         <v>225.0</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="C227" s="7"/>
       <c r="D227" s="8" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="E227" s="9"/>
     </row>
@@ -4785,11 +4951,11 @@
         <v>226.0</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="C228" s="7"/>
       <c r="D228" s="8" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="E228" s="9"/>
     </row>
@@ -4798,24 +4964,26 @@
         <v>227.0</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="C229" s="7"/>
       <c r="D229" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E229" s="9"/>
+        <v>533</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="5">
         <v>228.0</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="8" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="E230" s="9"/>
     </row>
@@ -4824,11 +4992,11 @@
         <v>229.0</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="8" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="E231" s="9"/>
     </row>
@@ -4837,11 +5005,11 @@
         <v>230.0</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="8" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="E232" s="9"/>
     </row>
@@ -4850,24 +5018,26 @@
         <v>231.0</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="E233" s="9"/>
+        <v>542</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="5">
         <v>232.0</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="8" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="E234" s="9"/>
     </row>
@@ -4876,11 +5046,11 @@
         <v>233.0</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="C235" s="7"/>
       <c r="D235" s="8" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="E235" s="9"/>
     </row>
@@ -4889,2302 +5059,2302 @@
         <v>234.0</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="C236" s="7"/>
       <c r="D236" s="8" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="E236" s="9"/>
     </row>
     <row r="237">
-      <c r="C237" s="10"/>
+      <c r="C237" s="11"/>
     </row>
     <row r="238">
-      <c r="C238" s="10"/>
+      <c r="C238" s="11"/>
     </row>
     <row r="239">
-      <c r="C239" s="10"/>
+      <c r="C239" s="11"/>
     </row>
     <row r="240">
-      <c r="C240" s="10"/>
+      <c r="C240" s="11"/>
     </row>
     <row r="241">
-      <c r="C241" s="10"/>
+      <c r="C241" s="11"/>
     </row>
     <row r="242">
-      <c r="C242" s="10"/>
+      <c r="C242" s="11"/>
     </row>
     <row r="243">
-      <c r="C243" s="10"/>
+      <c r="C243" s="11"/>
     </row>
     <row r="244">
-      <c r="C244" s="10"/>
+      <c r="C244" s="11"/>
     </row>
     <row r="245">
-      <c r="C245" s="10"/>
+      <c r="C245" s="11"/>
     </row>
     <row r="246">
-      <c r="C246" s="10"/>
+      <c r="C246" s="11"/>
     </row>
     <row r="247">
-      <c r="C247" s="10"/>
+      <c r="C247" s="11"/>
     </row>
     <row r="248">
-      <c r="C248" s="10"/>
+      <c r="C248" s="11"/>
     </row>
     <row r="249">
-      <c r="C249" s="10"/>
+      <c r="C249" s="11"/>
     </row>
     <row r="250">
-      <c r="C250" s="10"/>
+      <c r="C250" s="11"/>
     </row>
     <row r="251">
-      <c r="C251" s="10"/>
+      <c r="C251" s="11"/>
     </row>
     <row r="252">
-      <c r="C252" s="10"/>
+      <c r="C252" s="11"/>
     </row>
     <row r="253">
-      <c r="C253" s="10"/>
+      <c r="C253" s="11"/>
     </row>
     <row r="254">
-      <c r="C254" s="10"/>
+      <c r="C254" s="11"/>
     </row>
     <row r="255">
-      <c r="C255" s="10"/>
+      <c r="C255" s="11"/>
     </row>
     <row r="256">
-      <c r="C256" s="10"/>
+      <c r="C256" s="11"/>
     </row>
     <row r="257">
-      <c r="C257" s="10"/>
+      <c r="C257" s="11"/>
     </row>
     <row r="258">
-      <c r="C258" s="10"/>
+      <c r="C258" s="11"/>
     </row>
     <row r="259">
-      <c r="C259" s="10"/>
+      <c r="C259" s="11"/>
     </row>
     <row r="260">
-      <c r="C260" s="10"/>
+      <c r="C260" s="11"/>
     </row>
     <row r="261">
-      <c r="C261" s="10"/>
+      <c r="C261" s="11"/>
     </row>
     <row r="262">
-      <c r="C262" s="10"/>
+      <c r="C262" s="11"/>
     </row>
     <row r="263">
-      <c r="C263" s="10"/>
+      <c r="C263" s="11"/>
     </row>
     <row r="264">
-      <c r="C264" s="10"/>
+      <c r="C264" s="11"/>
     </row>
     <row r="265">
-      <c r="C265" s="10"/>
+      <c r="C265" s="11"/>
     </row>
     <row r="266">
-      <c r="C266" s="10"/>
+      <c r="C266" s="11"/>
     </row>
     <row r="267">
-      <c r="C267" s="10"/>
+      <c r="C267" s="11"/>
     </row>
     <row r="268">
-      <c r="C268" s="10"/>
+      <c r="C268" s="11"/>
     </row>
     <row r="269">
-      <c r="C269" s="10"/>
+      <c r="C269" s="11"/>
     </row>
     <row r="270">
-      <c r="C270" s="10"/>
+      <c r="C270" s="11"/>
     </row>
     <row r="271">
-      <c r="C271" s="10"/>
+      <c r="C271" s="11"/>
     </row>
     <row r="272">
-      <c r="C272" s="10"/>
+      <c r="C272" s="11"/>
     </row>
     <row r="273">
-      <c r="C273" s="10"/>
+      <c r="C273" s="11"/>
     </row>
     <row r="274">
-      <c r="C274" s="10"/>
+      <c r="C274" s="11"/>
     </row>
     <row r="275">
-      <c r="C275" s="10"/>
+      <c r="C275" s="11"/>
     </row>
     <row r="276">
-      <c r="C276" s="10"/>
+      <c r="C276" s="11"/>
     </row>
     <row r="277">
-      <c r="C277" s="10"/>
+      <c r="C277" s="11"/>
     </row>
     <row r="278">
-      <c r="C278" s="10"/>
+      <c r="C278" s="11"/>
     </row>
     <row r="279">
-      <c r="C279" s="10"/>
+      <c r="C279" s="11"/>
     </row>
     <row r="280">
-      <c r="C280" s="10"/>
+      <c r="C280" s="11"/>
     </row>
     <row r="281">
-      <c r="C281" s="10"/>
+      <c r="C281" s="11"/>
     </row>
     <row r="282">
-      <c r="C282" s="10"/>
+      <c r="C282" s="11"/>
     </row>
     <row r="283">
-      <c r="C283" s="10"/>
+      <c r="C283" s="11"/>
     </row>
     <row r="284">
-      <c r="C284" s="10"/>
+      <c r="C284" s="11"/>
     </row>
     <row r="285">
-      <c r="C285" s="10"/>
+      <c r="C285" s="11"/>
     </row>
     <row r="286">
-      <c r="C286" s="10"/>
+      <c r="C286" s="11"/>
     </row>
     <row r="287">
-      <c r="C287" s="10"/>
+      <c r="C287" s="11"/>
     </row>
     <row r="288">
-      <c r="C288" s="10"/>
+      <c r="C288" s="11"/>
     </row>
     <row r="289">
-      <c r="C289" s="10"/>
+      <c r="C289" s="11"/>
     </row>
     <row r="290">
-      <c r="C290" s="10"/>
+      <c r="C290" s="11"/>
     </row>
     <row r="291">
-      <c r="C291" s="10"/>
+      <c r="C291" s="11"/>
     </row>
     <row r="292">
-      <c r="C292" s="10"/>
+      <c r="C292" s="11"/>
     </row>
     <row r="293">
-      <c r="C293" s="10"/>
+      <c r="C293" s="11"/>
     </row>
     <row r="294">
-      <c r="C294" s="10"/>
+      <c r="C294" s="11"/>
     </row>
     <row r="295">
-      <c r="C295" s="10"/>
+      <c r="C295" s="11"/>
     </row>
     <row r="296">
-      <c r="C296" s="10"/>
+      <c r="C296" s="11"/>
     </row>
     <row r="297">
-      <c r="C297" s="10"/>
+      <c r="C297" s="11"/>
     </row>
     <row r="298">
-      <c r="C298" s="10"/>
+      <c r="C298" s="11"/>
     </row>
     <row r="299">
-      <c r="C299" s="10"/>
+      <c r="C299" s="11"/>
     </row>
     <row r="300">
-      <c r="C300" s="10"/>
+      <c r="C300" s="11"/>
     </row>
     <row r="301">
-      <c r="C301" s="10"/>
+      <c r="C301" s="11"/>
     </row>
     <row r="302">
-      <c r="C302" s="10"/>
+      <c r="C302" s="11"/>
     </row>
     <row r="303">
-      <c r="C303" s="10"/>
+      <c r="C303" s="11"/>
     </row>
     <row r="304">
-      <c r="C304" s="10"/>
+      <c r="C304" s="11"/>
     </row>
     <row r="305">
-      <c r="C305" s="10"/>
+      <c r="C305" s="11"/>
     </row>
     <row r="306">
-      <c r="C306" s="10"/>
+      <c r="C306" s="11"/>
     </row>
     <row r="307">
-      <c r="C307" s="10"/>
+      <c r="C307" s="11"/>
     </row>
     <row r="308">
-      <c r="C308" s="10"/>
+      <c r="C308" s="11"/>
     </row>
     <row r="309">
-      <c r="C309" s="10"/>
+      <c r="C309" s="11"/>
     </row>
     <row r="310">
-      <c r="C310" s="10"/>
+      <c r="C310" s="11"/>
     </row>
     <row r="311">
-      <c r="C311" s="10"/>
+      <c r="C311" s="11"/>
     </row>
     <row r="312">
-      <c r="C312" s="10"/>
+      <c r="C312" s="11"/>
     </row>
     <row r="313">
-      <c r="C313" s="10"/>
+      <c r="C313" s="11"/>
     </row>
     <row r="314">
-      <c r="C314" s="10"/>
+      <c r="C314" s="11"/>
     </row>
     <row r="315">
-      <c r="C315" s="10"/>
+      <c r="C315" s="11"/>
     </row>
     <row r="316">
-      <c r="C316" s="10"/>
+      <c r="C316" s="11"/>
     </row>
     <row r="317">
-      <c r="C317" s="10"/>
+      <c r="C317" s="11"/>
     </row>
     <row r="318">
-      <c r="C318" s="10"/>
+      <c r="C318" s="11"/>
     </row>
     <row r="319">
-      <c r="C319" s="10"/>
+      <c r="C319" s="11"/>
     </row>
     <row r="320">
-      <c r="C320" s="10"/>
+      <c r="C320" s="11"/>
     </row>
     <row r="321">
-      <c r="C321" s="10"/>
+      <c r="C321" s="11"/>
     </row>
     <row r="322">
-      <c r="C322" s="10"/>
+      <c r="C322" s="11"/>
     </row>
     <row r="323">
-      <c r="C323" s="10"/>
+      <c r="C323" s="11"/>
     </row>
     <row r="324">
-      <c r="C324" s="10"/>
+      <c r="C324" s="11"/>
     </row>
     <row r="325">
-      <c r="C325" s="10"/>
+      <c r="C325" s="11"/>
     </row>
     <row r="326">
-      <c r="C326" s="10"/>
+      <c r="C326" s="11"/>
     </row>
     <row r="327">
-      <c r="C327" s="10"/>
+      <c r="C327" s="11"/>
     </row>
     <row r="328">
-      <c r="C328" s="10"/>
+      <c r="C328" s="11"/>
     </row>
     <row r="329">
-      <c r="C329" s="10"/>
+      <c r="C329" s="11"/>
     </row>
     <row r="330">
-      <c r="C330" s="10"/>
+      <c r="C330" s="11"/>
     </row>
     <row r="331">
-      <c r="C331" s="10"/>
+      <c r="C331" s="11"/>
     </row>
     <row r="332">
-      <c r="C332" s="10"/>
+      <c r="C332" s="11"/>
     </row>
     <row r="333">
-      <c r="C333" s="10"/>
+      <c r="C333" s="11"/>
     </row>
     <row r="334">
-      <c r="C334" s="10"/>
+      <c r="C334" s="11"/>
     </row>
     <row r="335">
-      <c r="C335" s="10"/>
+      <c r="C335" s="11"/>
     </row>
     <row r="336">
-      <c r="C336" s="10"/>
+      <c r="C336" s="11"/>
     </row>
     <row r="337">
-      <c r="C337" s="10"/>
+      <c r="C337" s="11"/>
     </row>
     <row r="338">
-      <c r="C338" s="10"/>
+      <c r="C338" s="11"/>
     </row>
     <row r="339">
-      <c r="C339" s="10"/>
+      <c r="C339" s="11"/>
     </row>
     <row r="340">
-      <c r="C340" s="10"/>
+      <c r="C340" s="11"/>
     </row>
     <row r="341">
-      <c r="C341" s="10"/>
+      <c r="C341" s="11"/>
     </row>
     <row r="342">
-      <c r="C342" s="10"/>
+      <c r="C342" s="11"/>
     </row>
     <row r="343">
-      <c r="C343" s="10"/>
+      <c r="C343" s="11"/>
     </row>
     <row r="344">
-      <c r="C344" s="10"/>
+      <c r="C344" s="11"/>
     </row>
     <row r="345">
-      <c r="C345" s="10"/>
+      <c r="C345" s="11"/>
     </row>
     <row r="346">
-      <c r="C346" s="10"/>
+      <c r="C346" s="11"/>
     </row>
     <row r="347">
-      <c r="C347" s="10"/>
+      <c r="C347" s="11"/>
     </row>
     <row r="348">
-      <c r="C348" s="10"/>
+      <c r="C348" s="11"/>
     </row>
     <row r="349">
-      <c r="C349" s="10"/>
+      <c r="C349" s="11"/>
     </row>
     <row r="350">
-      <c r="C350" s="10"/>
+      <c r="C350" s="11"/>
     </row>
     <row r="351">
-      <c r="C351" s="10"/>
+      <c r="C351" s="11"/>
     </row>
     <row r="352">
-      <c r="C352" s="10"/>
+      <c r="C352" s="11"/>
     </row>
     <row r="353">
-      <c r="C353" s="10"/>
+      <c r="C353" s="11"/>
     </row>
     <row r="354">
-      <c r="C354" s="10"/>
+      <c r="C354" s="11"/>
     </row>
     <row r="355">
-      <c r="C355" s="10"/>
+      <c r="C355" s="11"/>
     </row>
     <row r="356">
-      <c r="C356" s="10"/>
+      <c r="C356" s="11"/>
     </row>
     <row r="357">
-      <c r="C357" s="10"/>
+      <c r="C357" s="11"/>
     </row>
     <row r="358">
-      <c r="C358" s="10"/>
+      <c r="C358" s="11"/>
     </row>
     <row r="359">
-      <c r="C359" s="10"/>
+      <c r="C359" s="11"/>
     </row>
     <row r="360">
-      <c r="C360" s="10"/>
+      <c r="C360" s="11"/>
     </row>
     <row r="361">
-      <c r="C361" s="10"/>
+      <c r="C361" s="11"/>
     </row>
     <row r="362">
-      <c r="C362" s="10"/>
+      <c r="C362" s="11"/>
     </row>
     <row r="363">
-      <c r="C363" s="10"/>
+      <c r="C363" s="11"/>
     </row>
     <row r="364">
-      <c r="C364" s="10"/>
+      <c r="C364" s="11"/>
     </row>
     <row r="365">
-      <c r="C365" s="10"/>
+      <c r="C365" s="11"/>
     </row>
     <row r="366">
-      <c r="C366" s="10"/>
+      <c r="C366" s="11"/>
     </row>
     <row r="367">
-      <c r="C367" s="10"/>
+      <c r="C367" s="11"/>
     </row>
     <row r="368">
-      <c r="C368" s="10"/>
+      <c r="C368" s="11"/>
     </row>
     <row r="369">
-      <c r="C369" s="10"/>
+      <c r="C369" s="11"/>
     </row>
     <row r="370">
-      <c r="C370" s="10"/>
+      <c r="C370" s="11"/>
     </row>
     <row r="371">
-      <c r="C371" s="10"/>
+      <c r="C371" s="11"/>
     </row>
     <row r="372">
-      <c r="C372" s="10"/>
+      <c r="C372" s="11"/>
     </row>
     <row r="373">
-      <c r="C373" s="10"/>
+      <c r="C373" s="11"/>
     </row>
     <row r="374">
-      <c r="C374" s="10"/>
+      <c r="C374" s="11"/>
     </row>
     <row r="375">
-      <c r="C375" s="10"/>
+      <c r="C375" s="11"/>
     </row>
     <row r="376">
-      <c r="C376" s="10"/>
+      <c r="C376" s="11"/>
     </row>
     <row r="377">
-      <c r="C377" s="10"/>
+      <c r="C377" s="11"/>
     </row>
     <row r="378">
-      <c r="C378" s="10"/>
+      <c r="C378" s="11"/>
     </row>
     <row r="379">
-      <c r="C379" s="10"/>
+      <c r="C379" s="11"/>
     </row>
     <row r="380">
-      <c r="C380" s="10"/>
+      <c r="C380" s="11"/>
     </row>
     <row r="381">
-      <c r="C381" s="10"/>
+      <c r="C381" s="11"/>
     </row>
     <row r="382">
-      <c r="C382" s="10"/>
+      <c r="C382" s="11"/>
     </row>
     <row r="383">
-      <c r="C383" s="10"/>
+      <c r="C383" s="11"/>
     </row>
     <row r="384">
-      <c r="C384" s="10"/>
+      <c r="C384" s="11"/>
     </row>
     <row r="385">
-      <c r="C385" s="10"/>
+      <c r="C385" s="11"/>
     </row>
     <row r="386">
-      <c r="C386" s="10"/>
+      <c r="C386" s="11"/>
     </row>
     <row r="387">
-      <c r="C387" s="10"/>
+      <c r="C387" s="11"/>
     </row>
     <row r="388">
-      <c r="C388" s="10"/>
+      <c r="C388" s="11"/>
     </row>
     <row r="389">
-      <c r="C389" s="10"/>
+      <c r="C389" s="11"/>
     </row>
     <row r="390">
-      <c r="C390" s="10"/>
+      <c r="C390" s="11"/>
     </row>
     <row r="391">
-      <c r="C391" s="10"/>
+      <c r="C391" s="11"/>
     </row>
     <row r="392">
-      <c r="C392" s="10"/>
+      <c r="C392" s="11"/>
     </row>
     <row r="393">
-      <c r="C393" s="10"/>
+      <c r="C393" s="11"/>
     </row>
     <row r="394">
-      <c r="C394" s="10"/>
+      <c r="C394" s="11"/>
     </row>
     <row r="395">
-      <c r="C395" s="10"/>
+      <c r="C395" s="11"/>
     </row>
     <row r="396">
-      <c r="C396" s="10"/>
+      <c r="C396" s="11"/>
     </row>
     <row r="397">
-      <c r="C397" s="10"/>
+      <c r="C397" s="11"/>
     </row>
     <row r="398">
-      <c r="C398" s="10"/>
+      <c r="C398" s="11"/>
     </row>
     <row r="399">
-      <c r="C399" s="10"/>
+      <c r="C399" s="11"/>
     </row>
     <row r="400">
-      <c r="C400" s="10"/>
+      <c r="C400" s="11"/>
     </row>
     <row r="401">
-      <c r="C401" s="10"/>
+      <c r="C401" s="11"/>
     </row>
     <row r="402">
-      <c r="C402" s="10"/>
+      <c r="C402" s="11"/>
     </row>
     <row r="403">
-      <c r="C403" s="10"/>
+      <c r="C403" s="11"/>
     </row>
     <row r="404">
-      <c r="C404" s="10"/>
+      <c r="C404" s="11"/>
     </row>
     <row r="405">
-      <c r="C405" s="10"/>
+      <c r="C405" s="11"/>
     </row>
     <row r="406">
-      <c r="C406" s="10"/>
+      <c r="C406" s="11"/>
     </row>
     <row r="407">
-      <c r="C407" s="10"/>
+      <c r="C407" s="11"/>
     </row>
     <row r="408">
-      <c r="C408" s="10"/>
+      <c r="C408" s="11"/>
     </row>
     <row r="409">
-      <c r="C409" s="10"/>
+      <c r="C409" s="11"/>
     </row>
     <row r="410">
-      <c r="C410" s="10"/>
+      <c r="C410" s="11"/>
     </row>
     <row r="411">
-      <c r="C411" s="10"/>
+      <c r="C411" s="11"/>
     </row>
     <row r="412">
-      <c r="C412" s="10"/>
+      <c r="C412" s="11"/>
     </row>
     <row r="413">
-      <c r="C413" s="10"/>
+      <c r="C413" s="11"/>
     </row>
     <row r="414">
-      <c r="C414" s="10"/>
+      <c r="C414" s="11"/>
     </row>
     <row r="415">
-      <c r="C415" s="10"/>
+      <c r="C415" s="11"/>
     </row>
     <row r="416">
-      <c r="C416" s="10"/>
+      <c r="C416" s="11"/>
     </row>
     <row r="417">
-      <c r="C417" s="10"/>
+      <c r="C417" s="11"/>
     </row>
     <row r="418">
-      <c r="C418" s="10"/>
+      <c r="C418" s="11"/>
     </row>
     <row r="419">
-      <c r="C419" s="10"/>
+      <c r="C419" s="11"/>
     </row>
     <row r="420">
-      <c r="C420" s="10"/>
+      <c r="C420" s="11"/>
     </row>
     <row r="421">
-      <c r="C421" s="10"/>
+      <c r="C421" s="11"/>
     </row>
     <row r="422">
-      <c r="C422" s="10"/>
+      <c r="C422" s="11"/>
     </row>
     <row r="423">
-      <c r="C423" s="10"/>
+      <c r="C423" s="11"/>
     </row>
     <row r="424">
-      <c r="C424" s="10"/>
+      <c r="C424" s="11"/>
     </row>
     <row r="425">
-      <c r="C425" s="10"/>
+      <c r="C425" s="11"/>
     </row>
     <row r="426">
-      <c r="C426" s="10"/>
+      <c r="C426" s="11"/>
     </row>
     <row r="427">
-      <c r="C427" s="10"/>
+      <c r="C427" s="11"/>
     </row>
     <row r="428">
-      <c r="C428" s="10"/>
+      <c r="C428" s="11"/>
     </row>
     <row r="429">
-      <c r="C429" s="10"/>
+      <c r="C429" s="11"/>
     </row>
     <row r="430">
-      <c r="C430" s="10"/>
+      <c r="C430" s="11"/>
     </row>
     <row r="431">
-      <c r="C431" s="10"/>
+      <c r="C431" s="11"/>
     </row>
     <row r="432">
-      <c r="C432" s="10"/>
+      <c r="C432" s="11"/>
     </row>
     <row r="433">
-      <c r="C433" s="10"/>
+      <c r="C433" s="11"/>
     </row>
     <row r="434">
-      <c r="C434" s="10"/>
+      <c r="C434" s="11"/>
     </row>
     <row r="435">
-      <c r="C435" s="10"/>
+      <c r="C435" s="11"/>
     </row>
     <row r="436">
-      <c r="C436" s="10"/>
+      <c r="C436" s="11"/>
     </row>
     <row r="437">
-      <c r="C437" s="10"/>
+      <c r="C437" s="11"/>
     </row>
     <row r="438">
-      <c r="C438" s="10"/>
+      <c r="C438" s="11"/>
     </row>
     <row r="439">
-      <c r="C439" s="10"/>
+      <c r="C439" s="11"/>
     </row>
     <row r="440">
-      <c r="C440" s="10"/>
+      <c r="C440" s="11"/>
     </row>
     <row r="441">
-      <c r="C441" s="10"/>
+      <c r="C441" s="11"/>
     </row>
     <row r="442">
-      <c r="C442" s="10"/>
+      <c r="C442" s="11"/>
     </row>
     <row r="443">
-      <c r="C443" s="10"/>
+      <c r="C443" s="11"/>
     </row>
     <row r="444">
-      <c r="C444" s="10"/>
+      <c r="C444" s="11"/>
     </row>
     <row r="445">
-      <c r="C445" s="10"/>
+      <c r="C445" s="11"/>
     </row>
     <row r="446">
-      <c r="C446" s="10"/>
+      <c r="C446" s="11"/>
     </row>
     <row r="447">
-      <c r="C447" s="10"/>
+      <c r="C447" s="11"/>
     </row>
     <row r="448">
-      <c r="C448" s="10"/>
+      <c r="C448" s="11"/>
     </row>
     <row r="449">
-      <c r="C449" s="10"/>
+      <c r="C449" s="11"/>
     </row>
     <row r="450">
-      <c r="C450" s="10"/>
+      <c r="C450" s="11"/>
     </row>
     <row r="451">
-      <c r="C451" s="10"/>
+      <c r="C451" s="11"/>
     </row>
     <row r="452">
-      <c r="C452" s="10"/>
+      <c r="C452" s="11"/>
     </row>
     <row r="453">
-      <c r="C453" s="10"/>
+      <c r="C453" s="11"/>
     </row>
     <row r="454">
-      <c r="C454" s="10"/>
+      <c r="C454" s="11"/>
     </row>
     <row r="455">
-      <c r="C455" s="10"/>
+      <c r="C455" s="11"/>
     </row>
     <row r="456">
-      <c r="C456" s="10"/>
+      <c r="C456" s="11"/>
     </row>
     <row r="457">
-      <c r="C457" s="10"/>
+      <c r="C457" s="11"/>
     </row>
     <row r="458">
-      <c r="C458" s="10"/>
+      <c r="C458" s="11"/>
     </row>
     <row r="459">
-      <c r="C459" s="10"/>
+      <c r="C459" s="11"/>
     </row>
     <row r="460">
-      <c r="C460" s="10"/>
+      <c r="C460" s="11"/>
     </row>
     <row r="461">
-      <c r="C461" s="10"/>
+      <c r="C461" s="11"/>
     </row>
     <row r="462">
-      <c r="C462" s="10"/>
+      <c r="C462" s="11"/>
     </row>
     <row r="463">
-      <c r="C463" s="10"/>
+      <c r="C463" s="11"/>
     </row>
     <row r="464">
-      <c r="C464" s="10"/>
+      <c r="C464" s="11"/>
     </row>
     <row r="465">
-      <c r="C465" s="10"/>
+      <c r="C465" s="11"/>
     </row>
     <row r="466">
-      <c r="C466" s="10"/>
+      <c r="C466" s="11"/>
     </row>
     <row r="467">
-      <c r="C467" s="10"/>
+      <c r="C467" s="11"/>
     </row>
     <row r="468">
-      <c r="C468" s="10"/>
+      <c r="C468" s="11"/>
     </row>
     <row r="469">
-      <c r="C469" s="10"/>
+      <c r="C469" s="11"/>
     </row>
     <row r="470">
-      <c r="C470" s="10"/>
+      <c r="C470" s="11"/>
     </row>
     <row r="471">
-      <c r="C471" s="10"/>
+      <c r="C471" s="11"/>
     </row>
     <row r="472">
-      <c r="C472" s="10"/>
+      <c r="C472" s="11"/>
     </row>
     <row r="473">
-      <c r="C473" s="10"/>
+      <c r="C473" s="11"/>
     </row>
     <row r="474">
-      <c r="C474" s="10"/>
+      <c r="C474" s="11"/>
     </row>
     <row r="475">
-      <c r="C475" s="10"/>
+      <c r="C475" s="11"/>
     </row>
     <row r="476">
-      <c r="C476" s="10"/>
+      <c r="C476" s="11"/>
     </row>
     <row r="477">
-      <c r="C477" s="10"/>
+      <c r="C477" s="11"/>
     </row>
     <row r="478">
-      <c r="C478" s="10"/>
+      <c r="C478" s="11"/>
     </row>
     <row r="479">
-      <c r="C479" s="10"/>
+      <c r="C479" s="11"/>
     </row>
     <row r="480">
-      <c r="C480" s="10"/>
+      <c r="C480" s="11"/>
     </row>
     <row r="481">
-      <c r="C481" s="10"/>
+      <c r="C481" s="11"/>
     </row>
     <row r="482">
-      <c r="C482" s="10"/>
+      <c r="C482" s="11"/>
     </row>
     <row r="483">
-      <c r="C483" s="10"/>
+      <c r="C483" s="11"/>
     </row>
     <row r="484">
-      <c r="C484" s="10"/>
+      <c r="C484" s="11"/>
     </row>
     <row r="485">
-      <c r="C485" s="10"/>
+      <c r="C485" s="11"/>
     </row>
     <row r="486">
-      <c r="C486" s="10"/>
+      <c r="C486" s="11"/>
     </row>
     <row r="487">
-      <c r="C487" s="10"/>
+      <c r="C487" s="11"/>
     </row>
     <row r="488">
-      <c r="C488" s="10"/>
+      <c r="C488" s="11"/>
     </row>
     <row r="489">
-      <c r="C489" s="10"/>
+      <c r="C489" s="11"/>
     </row>
     <row r="490">
-      <c r="C490" s="10"/>
+      <c r="C490" s="11"/>
     </row>
     <row r="491">
-      <c r="C491" s="10"/>
+      <c r="C491" s="11"/>
     </row>
     <row r="492">
-      <c r="C492" s="10"/>
+      <c r="C492" s="11"/>
     </row>
     <row r="493">
-      <c r="C493" s="10"/>
+      <c r="C493" s="11"/>
     </row>
     <row r="494">
-      <c r="C494" s="10"/>
+      <c r="C494" s="11"/>
     </row>
     <row r="495">
-      <c r="C495" s="10"/>
+      <c r="C495" s="11"/>
     </row>
     <row r="496">
-      <c r="C496" s="10"/>
+      <c r="C496" s="11"/>
     </row>
     <row r="497">
-      <c r="C497" s="10"/>
+      <c r="C497" s="11"/>
     </row>
     <row r="498">
-      <c r="C498" s="10"/>
+      <c r="C498" s="11"/>
     </row>
     <row r="499">
-      <c r="C499" s="10"/>
+      <c r="C499" s="11"/>
     </row>
     <row r="500">
-      <c r="C500" s="10"/>
+      <c r="C500" s="11"/>
     </row>
     <row r="501">
-      <c r="C501" s="10"/>
+      <c r="C501" s="11"/>
     </row>
     <row r="502">
-      <c r="C502" s="10"/>
+      <c r="C502" s="11"/>
     </row>
     <row r="503">
-      <c r="C503" s="10"/>
+      <c r="C503" s="11"/>
     </row>
     <row r="504">
-      <c r="C504" s="10"/>
+      <c r="C504" s="11"/>
     </row>
     <row r="505">
-      <c r="C505" s="10"/>
+      <c r="C505" s="11"/>
     </row>
     <row r="506">
-      <c r="C506" s="10"/>
+      <c r="C506" s="11"/>
     </row>
     <row r="507">
-      <c r="C507" s="10"/>
+      <c r="C507" s="11"/>
     </row>
     <row r="508">
-      <c r="C508" s="10"/>
+      <c r="C508" s="11"/>
     </row>
     <row r="509">
-      <c r="C509" s="10"/>
+      <c r="C509" s="11"/>
     </row>
     <row r="510">
-      <c r="C510" s="10"/>
+      <c r="C510" s="11"/>
     </row>
     <row r="511">
-      <c r="C511" s="10"/>
+      <c r="C511" s="11"/>
     </row>
     <row r="512">
-      <c r="C512" s="10"/>
+      <c r="C512" s="11"/>
     </row>
     <row r="513">
-      <c r="C513" s="10"/>
+      <c r="C513" s="11"/>
     </row>
     <row r="514">
-      <c r="C514" s="10"/>
+      <c r="C514" s="11"/>
     </row>
     <row r="515">
-      <c r="C515" s="10"/>
+      <c r="C515" s="11"/>
     </row>
     <row r="516">
-      <c r="C516" s="10"/>
+      <c r="C516" s="11"/>
     </row>
     <row r="517">
-      <c r="C517" s="10"/>
+      <c r="C517" s="11"/>
     </row>
     <row r="518">
-      <c r="C518" s="10"/>
+      <c r="C518" s="11"/>
     </row>
     <row r="519">
-      <c r="C519" s="10"/>
+      <c r="C519" s="11"/>
     </row>
     <row r="520">
-      <c r="C520" s="10"/>
+      <c r="C520" s="11"/>
     </row>
     <row r="521">
-      <c r="C521" s="10"/>
+      <c r="C521" s="11"/>
     </row>
     <row r="522">
-      <c r="C522" s="10"/>
+      <c r="C522" s="11"/>
     </row>
     <row r="523">
-      <c r="C523" s="10"/>
+      <c r="C523" s="11"/>
     </row>
     <row r="524">
-      <c r="C524" s="10"/>
+      <c r="C524" s="11"/>
     </row>
     <row r="525">
-      <c r="C525" s="10"/>
+      <c r="C525" s="11"/>
     </row>
     <row r="526">
-      <c r="C526" s="10"/>
+      <c r="C526" s="11"/>
     </row>
     <row r="527">
-      <c r="C527" s="10"/>
+      <c r="C527" s="11"/>
     </row>
     <row r="528">
-      <c r="C528" s="10"/>
+      <c r="C528" s="11"/>
     </row>
     <row r="529">
-      <c r="C529" s="10"/>
+      <c r="C529" s="11"/>
     </row>
     <row r="530">
-      <c r="C530" s="10"/>
+      <c r="C530" s="11"/>
     </row>
     <row r="531">
-      <c r="C531" s="10"/>
+      <c r="C531" s="11"/>
     </row>
     <row r="532">
-      <c r="C532" s="10"/>
+      <c r="C532" s="11"/>
     </row>
     <row r="533">
-      <c r="C533" s="10"/>
+      <c r="C533" s="11"/>
     </row>
     <row r="534">
-      <c r="C534" s="10"/>
+      <c r="C534" s="11"/>
     </row>
     <row r="535">
-      <c r="C535" s="10"/>
+      <c r="C535" s="11"/>
     </row>
     <row r="536">
-      <c r="C536" s="10"/>
+      <c r="C536" s="11"/>
     </row>
     <row r="537">
-      <c r="C537" s="10"/>
+      <c r="C537" s="11"/>
     </row>
     <row r="538">
-      <c r="C538" s="10"/>
+      <c r="C538" s="11"/>
     </row>
     <row r="539">
-      <c r="C539" s="10"/>
+      <c r="C539" s="11"/>
     </row>
     <row r="540">
-      <c r="C540" s="10"/>
+      <c r="C540" s="11"/>
     </row>
     <row r="541">
-      <c r="C541" s="10"/>
+      <c r="C541" s="11"/>
     </row>
     <row r="542">
-      <c r="C542" s="10"/>
+      <c r="C542" s="11"/>
     </row>
     <row r="543">
-      <c r="C543" s="10"/>
+      <c r="C543" s="11"/>
     </row>
     <row r="544">
-      <c r="C544" s="10"/>
+      <c r="C544" s="11"/>
     </row>
     <row r="545">
-      <c r="C545" s="10"/>
+      <c r="C545" s="11"/>
     </row>
     <row r="546">
-      <c r="C546" s="10"/>
+      <c r="C546" s="11"/>
     </row>
     <row r="547">
-      <c r="C547" s="10"/>
+      <c r="C547" s="11"/>
     </row>
     <row r="548">
-      <c r="C548" s="10"/>
+      <c r="C548" s="11"/>
     </row>
     <row r="549">
-      <c r="C549" s="10"/>
+      <c r="C549" s="11"/>
     </row>
     <row r="550">
-      <c r="C550" s="10"/>
+      <c r="C550" s="11"/>
     </row>
     <row r="551">
-      <c r="C551" s="10"/>
+      <c r="C551" s="11"/>
     </row>
     <row r="552">
-      <c r="C552" s="10"/>
+      <c r="C552" s="11"/>
     </row>
     <row r="553">
-      <c r="C553" s="10"/>
+      <c r="C553" s="11"/>
     </row>
     <row r="554">
-      <c r="C554" s="10"/>
+      <c r="C554" s="11"/>
     </row>
     <row r="555">
-      <c r="C555" s="10"/>
+      <c r="C555" s="11"/>
     </row>
     <row r="556">
-      <c r="C556" s="10"/>
+      <c r="C556" s="11"/>
     </row>
     <row r="557">
-      <c r="C557" s="10"/>
+      <c r="C557" s="11"/>
     </row>
     <row r="558">
-      <c r="C558" s="10"/>
+      <c r="C558" s="11"/>
     </row>
     <row r="559">
-      <c r="C559" s="10"/>
+      <c r="C559" s="11"/>
     </row>
     <row r="560">
-      <c r="C560" s="10"/>
+      <c r="C560" s="11"/>
     </row>
     <row r="561">
-      <c r="C561" s="10"/>
+      <c r="C561" s="11"/>
     </row>
     <row r="562">
-      <c r="C562" s="10"/>
+      <c r="C562" s="11"/>
     </row>
     <row r="563">
-      <c r="C563" s="10"/>
+      <c r="C563" s="11"/>
     </row>
     <row r="564">
-      <c r="C564" s="10"/>
+      <c r="C564" s="11"/>
     </row>
     <row r="565">
-      <c r="C565" s="10"/>
+      <c r="C565" s="11"/>
     </row>
     <row r="566">
-      <c r="C566" s="10"/>
+      <c r="C566" s="11"/>
     </row>
     <row r="567">
-      <c r="C567" s="10"/>
+      <c r="C567" s="11"/>
     </row>
     <row r="568">
-      <c r="C568" s="10"/>
+      <c r="C568" s="11"/>
     </row>
     <row r="569">
-      <c r="C569" s="10"/>
+      <c r="C569" s="11"/>
     </row>
     <row r="570">
-      <c r="C570" s="10"/>
+      <c r="C570" s="11"/>
     </row>
     <row r="571">
-      <c r="C571" s="10"/>
+      <c r="C571" s="11"/>
     </row>
     <row r="572">
-      <c r="C572" s="10"/>
+      <c r="C572" s="11"/>
     </row>
     <row r="573">
-      <c r="C573" s="10"/>
+      <c r="C573" s="11"/>
     </row>
     <row r="574">
-      <c r="C574" s="10"/>
+      <c r="C574" s="11"/>
     </row>
     <row r="575">
-      <c r="C575" s="10"/>
+      <c r="C575" s="11"/>
     </row>
     <row r="576">
-      <c r="C576" s="10"/>
+      <c r="C576" s="11"/>
     </row>
     <row r="577">
-      <c r="C577" s="10"/>
+      <c r="C577" s="11"/>
     </row>
     <row r="578">
-      <c r="C578" s="10"/>
+      <c r="C578" s="11"/>
     </row>
     <row r="579">
-      <c r="C579" s="10"/>
+      <c r="C579" s="11"/>
     </row>
     <row r="580">
-      <c r="C580" s="10"/>
+      <c r="C580" s="11"/>
     </row>
     <row r="581">
-      <c r="C581" s="10"/>
+      <c r="C581" s="11"/>
     </row>
     <row r="582">
-      <c r="C582" s="10"/>
+      <c r="C582" s="11"/>
     </row>
     <row r="583">
-      <c r="C583" s="10"/>
+      <c r="C583" s="11"/>
     </row>
     <row r="584">
-      <c r="C584" s="10"/>
+      <c r="C584" s="11"/>
     </row>
     <row r="585">
-      <c r="C585" s="10"/>
+      <c r="C585" s="11"/>
     </row>
     <row r="586">
-      <c r="C586" s="10"/>
+      <c r="C586" s="11"/>
     </row>
     <row r="587">
-      <c r="C587" s="10"/>
+      <c r="C587" s="11"/>
     </row>
     <row r="588">
-      <c r="C588" s="10"/>
+      <c r="C588" s="11"/>
     </row>
     <row r="589">
-      <c r="C589" s="10"/>
+      <c r="C589" s="11"/>
     </row>
     <row r="590">
-      <c r="C590" s="10"/>
+      <c r="C590" s="11"/>
     </row>
     <row r="591">
-      <c r="C591" s="10"/>
+      <c r="C591" s="11"/>
     </row>
     <row r="592">
-      <c r="C592" s="10"/>
+      <c r="C592" s="11"/>
     </row>
     <row r="593">
-      <c r="C593" s="10"/>
+      <c r="C593" s="11"/>
     </row>
     <row r="594">
-      <c r="C594" s="10"/>
+      <c r="C594" s="11"/>
     </row>
     <row r="595">
-      <c r="C595" s="10"/>
+      <c r="C595" s="11"/>
     </row>
     <row r="596">
-      <c r="C596" s="10"/>
+      <c r="C596" s="11"/>
     </row>
     <row r="597">
-      <c r="C597" s="10"/>
+      <c r="C597" s="11"/>
     </row>
     <row r="598">
-      <c r="C598" s="10"/>
+      <c r="C598" s="11"/>
     </row>
     <row r="599">
-      <c r="C599" s="10"/>
+      <c r="C599" s="11"/>
     </row>
     <row r="600">
-      <c r="C600" s="10"/>
+      <c r="C600" s="11"/>
     </row>
     <row r="601">
-      <c r="C601" s="10"/>
+      <c r="C601" s="11"/>
     </row>
     <row r="602">
-      <c r="C602" s="10"/>
+      <c r="C602" s="11"/>
     </row>
     <row r="603">
-      <c r="C603" s="10"/>
+      <c r="C603" s="11"/>
     </row>
     <row r="604">
-      <c r="C604" s="10"/>
+      <c r="C604" s="11"/>
     </row>
     <row r="605">
-      <c r="C605" s="10"/>
+      <c r="C605" s="11"/>
     </row>
     <row r="606">
-      <c r="C606" s="10"/>
+      <c r="C606" s="11"/>
     </row>
     <row r="607">
-      <c r="C607" s="10"/>
+      <c r="C607" s="11"/>
     </row>
     <row r="608">
-      <c r="C608" s="10"/>
+      <c r="C608" s="11"/>
     </row>
     <row r="609">
-      <c r="C609" s="10"/>
+      <c r="C609" s="11"/>
     </row>
     <row r="610">
-      <c r="C610" s="10"/>
+      <c r="C610" s="11"/>
     </row>
     <row r="611">
-      <c r="C611" s="10"/>
+      <c r="C611" s="11"/>
     </row>
     <row r="612">
-      <c r="C612" s="10"/>
+      <c r="C612" s="11"/>
     </row>
     <row r="613">
-      <c r="C613" s="10"/>
+      <c r="C613" s="11"/>
     </row>
     <row r="614">
-      <c r="C614" s="10"/>
+      <c r="C614" s="11"/>
     </row>
     <row r="615">
-      <c r="C615" s="10"/>
+      <c r="C615" s="11"/>
     </row>
     <row r="616">
-      <c r="C616" s="10"/>
+      <c r="C616" s="11"/>
     </row>
     <row r="617">
-      <c r="C617" s="10"/>
+      <c r="C617" s="11"/>
     </row>
     <row r="618">
-      <c r="C618" s="10"/>
+      <c r="C618" s="11"/>
     </row>
     <row r="619">
-      <c r="C619" s="10"/>
+      <c r="C619" s="11"/>
     </row>
     <row r="620">
-      <c r="C620" s="10"/>
+      <c r="C620" s="11"/>
     </row>
     <row r="621">
-      <c r="C621" s="10"/>
+      <c r="C621" s="11"/>
     </row>
     <row r="622">
-      <c r="C622" s="10"/>
+      <c r="C622" s="11"/>
     </row>
     <row r="623">
-      <c r="C623" s="10"/>
+      <c r="C623" s="11"/>
     </row>
     <row r="624">
-      <c r="C624" s="10"/>
+      <c r="C624" s="11"/>
     </row>
     <row r="625">
-      <c r="C625" s="10"/>
+      <c r="C625" s="11"/>
     </row>
     <row r="626">
-      <c r="C626" s="10"/>
+      <c r="C626" s="11"/>
     </row>
     <row r="627">
-      <c r="C627" s="10"/>
+      <c r="C627" s="11"/>
     </row>
     <row r="628">
-      <c r="C628" s="10"/>
+      <c r="C628" s="11"/>
     </row>
     <row r="629">
-      <c r="C629" s="10"/>
+      <c r="C629" s="11"/>
     </row>
     <row r="630">
-      <c r="C630" s="10"/>
+      <c r="C630" s="11"/>
     </row>
     <row r="631">
-      <c r="C631" s="10"/>
+      <c r="C631" s="11"/>
     </row>
     <row r="632">
-      <c r="C632" s="10"/>
+      <c r="C632" s="11"/>
     </row>
     <row r="633">
-      <c r="C633" s="10"/>
+      <c r="C633" s="11"/>
     </row>
     <row r="634">
-      <c r="C634" s="10"/>
+      <c r="C634" s="11"/>
     </row>
     <row r="635">
-      <c r="C635" s="10"/>
+      <c r="C635" s="11"/>
     </row>
     <row r="636">
-      <c r="C636" s="10"/>
+      <c r="C636" s="11"/>
     </row>
     <row r="637">
-      <c r="C637" s="10"/>
+      <c r="C637" s="11"/>
     </row>
     <row r="638">
-      <c r="C638" s="10"/>
+      <c r="C638" s="11"/>
     </row>
     <row r="639">
-      <c r="C639" s="10"/>
+      <c r="C639" s="11"/>
     </row>
     <row r="640">
-      <c r="C640" s="10"/>
+      <c r="C640" s="11"/>
     </row>
     <row r="641">
-      <c r="C641" s="10"/>
+      <c r="C641" s="11"/>
     </row>
     <row r="642">
-      <c r="C642" s="10"/>
+      <c r="C642" s="11"/>
     </row>
     <row r="643">
-      <c r="C643" s="10"/>
+      <c r="C643" s="11"/>
     </row>
     <row r="644">
-      <c r="C644" s="10"/>
+      <c r="C644" s="11"/>
     </row>
     <row r="645">
-      <c r="C645" s="10"/>
+      <c r="C645" s="11"/>
     </row>
     <row r="646">
-      <c r="C646" s="10"/>
+      <c r="C646" s="11"/>
     </row>
     <row r="647">
-      <c r="C647" s="10"/>
+      <c r="C647" s="11"/>
     </row>
     <row r="648">
-      <c r="C648" s="10"/>
+      <c r="C648" s="11"/>
     </row>
     <row r="649">
-      <c r="C649" s="10"/>
+      <c r="C649" s="11"/>
     </row>
     <row r="650">
-      <c r="C650" s="10"/>
+      <c r="C650" s="11"/>
     </row>
     <row r="651">
-      <c r="C651" s="10"/>
+      <c r="C651" s="11"/>
     </row>
     <row r="652">
-      <c r="C652" s="10"/>
+      <c r="C652" s="11"/>
     </row>
     <row r="653">
-      <c r="C653" s="10"/>
+      <c r="C653" s="11"/>
     </row>
     <row r="654">
-      <c r="C654" s="10"/>
+      <c r="C654" s="11"/>
     </row>
     <row r="655">
-      <c r="C655" s="10"/>
+      <c r="C655" s="11"/>
     </row>
     <row r="656">
-      <c r="C656" s="10"/>
+      <c r="C656" s="11"/>
     </row>
     <row r="657">
-      <c r="C657" s="10"/>
+      <c r="C657" s="11"/>
     </row>
     <row r="658">
-      <c r="C658" s="10"/>
+      <c r="C658" s="11"/>
     </row>
     <row r="659">
-      <c r="C659" s="10"/>
+      <c r="C659" s="11"/>
     </row>
     <row r="660">
-      <c r="C660" s="10"/>
+      <c r="C660" s="11"/>
     </row>
     <row r="661">
-      <c r="C661" s="10"/>
+      <c r="C661" s="11"/>
     </row>
     <row r="662">
-      <c r="C662" s="10"/>
+      <c r="C662" s="11"/>
     </row>
     <row r="663">
-      <c r="C663" s="10"/>
+      <c r="C663" s="11"/>
     </row>
     <row r="664">
-      <c r="C664" s="10"/>
+      <c r="C664" s="11"/>
     </row>
     <row r="665">
-      <c r="C665" s="10"/>
+      <c r="C665" s="11"/>
     </row>
     <row r="666">
-      <c r="C666" s="10"/>
+      <c r="C666" s="11"/>
     </row>
     <row r="667">
-      <c r="C667" s="10"/>
+      <c r="C667" s="11"/>
     </row>
     <row r="668">
-      <c r="C668" s="10"/>
+      <c r="C668" s="11"/>
     </row>
     <row r="669">
-      <c r="C669" s="10"/>
+      <c r="C669" s="11"/>
     </row>
     <row r="670">
-      <c r="C670" s="10"/>
+      <c r="C670" s="11"/>
     </row>
     <row r="671">
-      <c r="C671" s="10"/>
+      <c r="C671" s="11"/>
     </row>
     <row r="672">
-      <c r="C672" s="10"/>
+      <c r="C672" s="11"/>
     </row>
     <row r="673">
-      <c r="C673" s="10"/>
+      <c r="C673" s="11"/>
     </row>
     <row r="674">
-      <c r="C674" s="10"/>
+      <c r="C674" s="11"/>
     </row>
     <row r="675">
-      <c r="C675" s="10"/>
+      <c r="C675" s="11"/>
     </row>
     <row r="676">
-      <c r="C676" s="10"/>
+      <c r="C676" s="11"/>
     </row>
     <row r="677">
-      <c r="C677" s="10"/>
+      <c r="C677" s="11"/>
     </row>
     <row r="678">
-      <c r="C678" s="10"/>
+      <c r="C678" s="11"/>
     </row>
     <row r="679">
-      <c r="C679" s="10"/>
+      <c r="C679" s="11"/>
     </row>
     <row r="680">
-      <c r="C680" s="10"/>
+      <c r="C680" s="11"/>
     </row>
     <row r="681">
-      <c r="C681" s="10"/>
+      <c r="C681" s="11"/>
     </row>
     <row r="682">
-      <c r="C682" s="10"/>
+      <c r="C682" s="11"/>
     </row>
     <row r="683">
-      <c r="C683" s="10"/>
+      <c r="C683" s="11"/>
     </row>
     <row r="684">
-      <c r="C684" s="10"/>
+      <c r="C684" s="11"/>
     </row>
     <row r="685">
-      <c r="C685" s="10"/>
+      <c r="C685" s="11"/>
     </row>
     <row r="686">
-      <c r="C686" s="10"/>
+      <c r="C686" s="11"/>
     </row>
     <row r="687">
-      <c r="C687" s="10"/>
+      <c r="C687" s="11"/>
     </row>
     <row r="688">
-      <c r="C688" s="10"/>
+      <c r="C688" s="11"/>
     </row>
     <row r="689">
-      <c r="C689" s="10"/>
+      <c r="C689" s="11"/>
     </row>
     <row r="690">
-      <c r="C690" s="10"/>
+      <c r="C690" s="11"/>
     </row>
     <row r="691">
-      <c r="C691" s="10"/>
+      <c r="C691" s="11"/>
     </row>
     <row r="692">
-      <c r="C692" s="10"/>
+      <c r="C692" s="11"/>
     </row>
     <row r="693">
-      <c r="C693" s="10"/>
+      <c r="C693" s="11"/>
     </row>
     <row r="694">
-      <c r="C694" s="10"/>
+      <c r="C694" s="11"/>
     </row>
     <row r="695">
-      <c r="C695" s="10"/>
+      <c r="C695" s="11"/>
     </row>
     <row r="696">
-      <c r="C696" s="10"/>
+      <c r="C696" s="11"/>
     </row>
     <row r="697">
-      <c r="C697" s="10"/>
+      <c r="C697" s="11"/>
     </row>
     <row r="698">
-      <c r="C698" s="10"/>
+      <c r="C698" s="11"/>
     </row>
     <row r="699">
-      <c r="C699" s="10"/>
+      <c r="C699" s="11"/>
     </row>
     <row r="700">
-      <c r="C700" s="10"/>
+      <c r="C700" s="11"/>
     </row>
     <row r="701">
-      <c r="C701" s="10"/>
+      <c r="C701" s="11"/>
     </row>
     <row r="702">
-      <c r="C702" s="10"/>
+      <c r="C702" s="11"/>
     </row>
     <row r="703">
-      <c r="C703" s="10"/>
+      <c r="C703" s="11"/>
     </row>
     <row r="704">
-      <c r="C704" s="10"/>
+      <c r="C704" s="11"/>
     </row>
     <row r="705">
-      <c r="C705" s="10"/>
+      <c r="C705" s="11"/>
     </row>
     <row r="706">
-      <c r="C706" s="10"/>
+      <c r="C706" s="11"/>
     </row>
     <row r="707">
-      <c r="C707" s="10"/>
+      <c r="C707" s="11"/>
     </row>
     <row r="708">
-      <c r="C708" s="10"/>
+      <c r="C708" s="11"/>
     </row>
     <row r="709">
-      <c r="C709" s="10"/>
+      <c r="C709" s="11"/>
     </row>
     <row r="710">
-      <c r="C710" s="10"/>
+      <c r="C710" s="11"/>
     </row>
     <row r="711">
-      <c r="C711" s="10"/>
+      <c r="C711" s="11"/>
     </row>
     <row r="712">
-      <c r="C712" s="10"/>
+      <c r="C712" s="11"/>
     </row>
     <row r="713">
-      <c r="C713" s="10"/>
+      <c r="C713" s="11"/>
     </row>
     <row r="714">
-      <c r="C714" s="10"/>
+      <c r="C714" s="11"/>
     </row>
     <row r="715">
-      <c r="C715" s="10"/>
+      <c r="C715" s="11"/>
     </row>
     <row r="716">
-      <c r="C716" s="10"/>
+      <c r="C716" s="11"/>
     </row>
     <row r="717">
-      <c r="C717" s="10"/>
+      <c r="C717" s="11"/>
     </row>
     <row r="718">
-      <c r="C718" s="10"/>
+      <c r="C718" s="11"/>
     </row>
     <row r="719">
-      <c r="C719" s="10"/>
+      <c r="C719" s="11"/>
     </row>
     <row r="720">
-      <c r="C720" s="10"/>
+      <c r="C720" s="11"/>
     </row>
     <row r="721">
-      <c r="C721" s="10"/>
+      <c r="C721" s="11"/>
     </row>
     <row r="722">
-      <c r="C722" s="10"/>
+      <c r="C722" s="11"/>
     </row>
     <row r="723">
-      <c r="C723" s="10"/>
+      <c r="C723" s="11"/>
     </row>
     <row r="724">
-      <c r="C724" s="10"/>
+      <c r="C724" s="11"/>
     </row>
     <row r="725">
-      <c r="C725" s="10"/>
+      <c r="C725" s="11"/>
     </row>
     <row r="726">
-      <c r="C726" s="10"/>
+      <c r="C726" s="11"/>
     </row>
     <row r="727">
-      <c r="C727" s="10"/>
+      <c r="C727" s="11"/>
     </row>
     <row r="728">
-      <c r="C728" s="10"/>
+      <c r="C728" s="11"/>
     </row>
     <row r="729">
-      <c r="C729" s="10"/>
+      <c r="C729" s="11"/>
     </row>
     <row r="730">
-      <c r="C730" s="10"/>
+      <c r="C730" s="11"/>
     </row>
     <row r="731">
-      <c r="C731" s="10"/>
+      <c r="C731" s="11"/>
     </row>
     <row r="732">
-      <c r="C732" s="10"/>
+      <c r="C732" s="11"/>
     </row>
     <row r="733">
-      <c r="C733" s="10"/>
+      <c r="C733" s="11"/>
     </row>
     <row r="734">
-      <c r="C734" s="10"/>
+      <c r="C734" s="11"/>
     </row>
     <row r="735">
-      <c r="C735" s="10"/>
+      <c r="C735" s="11"/>
     </row>
     <row r="736">
-      <c r="C736" s="10"/>
+      <c r="C736" s="11"/>
     </row>
     <row r="737">
-      <c r="C737" s="10"/>
+      <c r="C737" s="11"/>
     </row>
     <row r="738">
-      <c r="C738" s="10"/>
+      <c r="C738" s="11"/>
     </row>
     <row r="739">
-      <c r="C739" s="10"/>
+      <c r="C739" s="11"/>
     </row>
     <row r="740">
-      <c r="C740" s="10"/>
+      <c r="C740" s="11"/>
     </row>
     <row r="741">
-      <c r="C741" s="10"/>
+      <c r="C741" s="11"/>
     </row>
     <row r="742">
-      <c r="C742" s="10"/>
+      <c r="C742" s="11"/>
     </row>
     <row r="743">
-      <c r="C743" s="10"/>
+      <c r="C743" s="11"/>
     </row>
     <row r="744">
-      <c r="C744" s="10"/>
+      <c r="C744" s="11"/>
     </row>
     <row r="745">
-      <c r="C745" s="10"/>
+      <c r="C745" s="11"/>
     </row>
     <row r="746">
-      <c r="C746" s="10"/>
+      <c r="C746" s="11"/>
     </row>
     <row r="747">
-      <c r="C747" s="10"/>
+      <c r="C747" s="11"/>
     </row>
     <row r="748">
-      <c r="C748" s="10"/>
+      <c r="C748" s="11"/>
     </row>
     <row r="749">
-      <c r="C749" s="10"/>
+      <c r="C749" s="11"/>
     </row>
     <row r="750">
-      <c r="C750" s="10"/>
+      <c r="C750" s="11"/>
     </row>
     <row r="751">
-      <c r="C751" s="10"/>
+      <c r="C751" s="11"/>
     </row>
     <row r="752">
-      <c r="C752" s="10"/>
+      <c r="C752" s="11"/>
     </row>
     <row r="753">
-      <c r="C753" s="10"/>
+      <c r="C753" s="11"/>
     </row>
     <row r="754">
-      <c r="C754" s="10"/>
+      <c r="C754" s="11"/>
     </row>
     <row r="755">
-      <c r="C755" s="10"/>
+      <c r="C755" s="11"/>
     </row>
     <row r="756">
-      <c r="C756" s="10"/>
+      <c r="C756" s="11"/>
     </row>
     <row r="757">
-      <c r="C757" s="10"/>
+      <c r="C757" s="11"/>
     </row>
     <row r="758">
-      <c r="C758" s="10"/>
+      <c r="C758" s="11"/>
     </row>
     <row r="759">
-      <c r="C759" s="10"/>
+      <c r="C759" s="11"/>
     </row>
     <row r="760">
-      <c r="C760" s="10"/>
+      <c r="C760" s="11"/>
     </row>
     <row r="761">
-      <c r="C761" s="10"/>
+      <c r="C761" s="11"/>
     </row>
     <row r="762">
-      <c r="C762" s="10"/>
+      <c r="C762" s="11"/>
     </row>
     <row r="763">
-      <c r="C763" s="10"/>
+      <c r="C763" s="11"/>
     </row>
     <row r="764">
-      <c r="C764" s="10"/>
+      <c r="C764" s="11"/>
     </row>
     <row r="765">
-      <c r="C765" s="10"/>
+      <c r="C765" s="11"/>
     </row>
     <row r="766">
-      <c r="C766" s="10"/>
+      <c r="C766" s="11"/>
     </row>
     <row r="767">
-      <c r="C767" s="10"/>
+      <c r="C767" s="11"/>
     </row>
     <row r="768">
-      <c r="C768" s="10"/>
+      <c r="C768" s="11"/>
     </row>
     <row r="769">
-      <c r="C769" s="10"/>
+      <c r="C769" s="11"/>
     </row>
     <row r="770">
-      <c r="C770" s="10"/>
+      <c r="C770" s="11"/>
     </row>
     <row r="771">
-      <c r="C771" s="10"/>
+      <c r="C771" s="11"/>
     </row>
     <row r="772">
-      <c r="C772" s="10"/>
+      <c r="C772" s="11"/>
     </row>
     <row r="773">
-      <c r="C773" s="10"/>
+      <c r="C773" s="11"/>
     </row>
     <row r="774">
-      <c r="C774" s="10"/>
+      <c r="C774" s="11"/>
     </row>
     <row r="775">
-      <c r="C775" s="10"/>
+      <c r="C775" s="11"/>
     </row>
     <row r="776">
-      <c r="C776" s="10"/>
+      <c r="C776" s="11"/>
     </row>
     <row r="777">
-      <c r="C777" s="10"/>
+      <c r="C777" s="11"/>
     </row>
     <row r="778">
-      <c r="C778" s="10"/>
+      <c r="C778" s="11"/>
     </row>
     <row r="779">
-      <c r="C779" s="10"/>
+      <c r="C779" s="11"/>
     </row>
     <row r="780">
-      <c r="C780" s="10"/>
+      <c r="C780" s="11"/>
     </row>
     <row r="781">
-      <c r="C781" s="10"/>
+      <c r="C781" s="11"/>
     </row>
     <row r="782">
-      <c r="C782" s="10"/>
+      <c r="C782" s="11"/>
     </row>
     <row r="783">
-      <c r="C783" s="10"/>
+      <c r="C783" s="11"/>
     </row>
     <row r="784">
-      <c r="C784" s="10"/>
+      <c r="C784" s="11"/>
     </row>
     <row r="785">
-      <c r="C785" s="10"/>
+      <c r="C785" s="11"/>
     </row>
     <row r="786">
-      <c r="C786" s="10"/>
+      <c r="C786" s="11"/>
     </row>
     <row r="787">
-      <c r="C787" s="10"/>
+      <c r="C787" s="11"/>
     </row>
     <row r="788">
-      <c r="C788" s="10"/>
+      <c r="C788" s="11"/>
     </row>
     <row r="789">
-      <c r="C789" s="10"/>
+      <c r="C789" s="11"/>
     </row>
     <row r="790">
-      <c r="C790" s="10"/>
+      <c r="C790" s="11"/>
     </row>
     <row r="791">
-      <c r="C791" s="10"/>
+      <c r="C791" s="11"/>
     </row>
     <row r="792">
-      <c r="C792" s="10"/>
+      <c r="C792" s="11"/>
     </row>
     <row r="793">
-      <c r="C793" s="10"/>
+      <c r="C793" s="11"/>
     </row>
     <row r="794">
-      <c r="C794" s="10"/>
+      <c r="C794" s="11"/>
     </row>
     <row r="795">
-      <c r="C795" s="10"/>
+      <c r="C795" s="11"/>
     </row>
     <row r="796">
-      <c r="C796" s="10"/>
+      <c r="C796" s="11"/>
     </row>
     <row r="797">
-      <c r="C797" s="10"/>
+      <c r="C797" s="11"/>
     </row>
     <row r="798">
-      <c r="C798" s="10"/>
+      <c r="C798" s="11"/>
     </row>
     <row r="799">
-      <c r="C799" s="10"/>
+      <c r="C799" s="11"/>
     </row>
     <row r="800">
-      <c r="C800" s="10"/>
+      <c r="C800" s="11"/>
     </row>
     <row r="801">
-      <c r="C801" s="10"/>
+      <c r="C801" s="11"/>
     </row>
     <row r="802">
-      <c r="C802" s="10"/>
+      <c r="C802" s="11"/>
     </row>
     <row r="803">
-      <c r="C803" s="10"/>
+      <c r="C803" s="11"/>
     </row>
     <row r="804">
-      <c r="C804" s="10"/>
+      <c r="C804" s="11"/>
     </row>
     <row r="805">
-      <c r="C805" s="10"/>
+      <c r="C805" s="11"/>
     </row>
     <row r="806">
-      <c r="C806" s="10"/>
+      <c r="C806" s="11"/>
     </row>
     <row r="807">
-      <c r="C807" s="10"/>
+      <c r="C807" s="11"/>
     </row>
     <row r="808">
-      <c r="C808" s="10"/>
+      <c r="C808" s="11"/>
     </row>
     <row r="809">
-      <c r="C809" s="10"/>
+      <c r="C809" s="11"/>
     </row>
     <row r="810">
-      <c r="C810" s="10"/>
+      <c r="C810" s="11"/>
     </row>
     <row r="811">
-      <c r="C811" s="10"/>
+      <c r="C811" s="11"/>
     </row>
     <row r="812">
-      <c r="C812" s="10"/>
+      <c r="C812" s="11"/>
     </row>
     <row r="813">
-      <c r="C813" s="10"/>
+      <c r="C813" s="11"/>
     </row>
     <row r="814">
-      <c r="C814" s="10"/>
+      <c r="C814" s="11"/>
     </row>
     <row r="815">
-      <c r="C815" s="10"/>
+      <c r="C815" s="11"/>
     </row>
     <row r="816">
-      <c r="C816" s="10"/>
+      <c r="C816" s="11"/>
     </row>
     <row r="817">
-      <c r="C817" s="10"/>
+      <c r="C817" s="11"/>
     </row>
     <row r="818">
-      <c r="C818" s="10"/>
+      <c r="C818" s="11"/>
     </row>
     <row r="819">
-      <c r="C819" s="10"/>
+      <c r="C819" s="11"/>
     </row>
     <row r="820">
-      <c r="C820" s="10"/>
+      <c r="C820" s="11"/>
     </row>
     <row r="821">
-      <c r="C821" s="10"/>
+      <c r="C821" s="11"/>
     </row>
     <row r="822">
-      <c r="C822" s="10"/>
+      <c r="C822" s="11"/>
     </row>
     <row r="823">
-      <c r="C823" s="10"/>
+      <c r="C823" s="11"/>
     </row>
     <row r="824">
-      <c r="C824" s="10"/>
+      <c r="C824" s="11"/>
     </row>
     <row r="825">
-      <c r="C825" s="10"/>
+      <c r="C825" s="11"/>
     </row>
     <row r="826">
-      <c r="C826" s="10"/>
+      <c r="C826" s="11"/>
     </row>
     <row r="827">
-      <c r="C827" s="10"/>
+      <c r="C827" s="11"/>
     </row>
     <row r="828">
-      <c r="C828" s="10"/>
+      <c r="C828" s="11"/>
     </row>
     <row r="829">
-      <c r="C829" s="10"/>
+      <c r="C829" s="11"/>
     </row>
     <row r="830">
-      <c r="C830" s="10"/>
+      <c r="C830" s="11"/>
     </row>
     <row r="831">
-      <c r="C831" s="10"/>
+      <c r="C831" s="11"/>
     </row>
     <row r="832">
-      <c r="C832" s="10"/>
+      <c r="C832" s="11"/>
     </row>
     <row r="833">
-      <c r="C833" s="10"/>
+      <c r="C833" s="11"/>
     </row>
     <row r="834">
-      <c r="C834" s="10"/>
+      <c r="C834" s="11"/>
     </row>
     <row r="835">
-      <c r="C835" s="10"/>
+      <c r="C835" s="11"/>
     </row>
     <row r="836">
-      <c r="C836" s="10"/>
+      <c r="C836" s="11"/>
     </row>
     <row r="837">
-      <c r="C837" s="10"/>
+      <c r="C837" s="11"/>
     </row>
     <row r="838">
-      <c r="C838" s="10"/>
+      <c r="C838" s="11"/>
     </row>
     <row r="839">
-      <c r="C839" s="10"/>
+      <c r="C839" s="11"/>
     </row>
     <row r="840">
-      <c r="C840" s="10"/>
+      <c r="C840" s="11"/>
     </row>
     <row r="841">
-      <c r="C841" s="10"/>
+      <c r="C841" s="11"/>
     </row>
     <row r="842">
-      <c r="C842" s="10"/>
+      <c r="C842" s="11"/>
     </row>
     <row r="843">
-      <c r="C843" s="10"/>
+      <c r="C843" s="11"/>
     </row>
     <row r="844">
-      <c r="C844" s="10"/>
+      <c r="C844" s="11"/>
     </row>
     <row r="845">
-      <c r="C845" s="10"/>
+      <c r="C845" s="11"/>
     </row>
     <row r="846">
-      <c r="C846" s="10"/>
+      <c r="C846" s="11"/>
     </row>
     <row r="847">
-      <c r="C847" s="10"/>
+      <c r="C847" s="11"/>
     </row>
     <row r="848">
-      <c r="C848" s="10"/>
+      <c r="C848" s="11"/>
     </row>
     <row r="849">
-      <c r="C849" s="10"/>
+      <c r="C849" s="11"/>
     </row>
     <row r="850">
-      <c r="C850" s="10"/>
+      <c r="C850" s="11"/>
     </row>
     <row r="851">
-      <c r="C851" s="10"/>
+      <c r="C851" s="11"/>
     </row>
     <row r="852">
-      <c r="C852" s="10"/>
+      <c r="C852" s="11"/>
     </row>
     <row r="853">
-      <c r="C853" s="10"/>
+      <c r="C853" s="11"/>
     </row>
     <row r="854">
-      <c r="C854" s="10"/>
+      <c r="C854" s="11"/>
     </row>
     <row r="855">
-      <c r="C855" s="10"/>
+      <c r="C855" s="11"/>
     </row>
     <row r="856">
-      <c r="C856" s="10"/>
+      <c r="C856" s="11"/>
     </row>
     <row r="857">
-      <c r="C857" s="10"/>
+      <c r="C857" s="11"/>
     </row>
     <row r="858">
-      <c r="C858" s="10"/>
+      <c r="C858" s="11"/>
     </row>
     <row r="859">
-      <c r="C859" s="10"/>
+      <c r="C859" s="11"/>
     </row>
     <row r="860">
-      <c r="C860" s="10"/>
+      <c r="C860" s="11"/>
     </row>
     <row r="861">
-      <c r="C861" s="10"/>
+      <c r="C861" s="11"/>
     </row>
     <row r="862">
-      <c r="C862" s="10"/>
+      <c r="C862" s="11"/>
     </row>
     <row r="863">
-      <c r="C863" s="10"/>
+      <c r="C863" s="11"/>
     </row>
     <row r="864">
-      <c r="C864" s="10"/>
+      <c r="C864" s="11"/>
     </row>
     <row r="865">
-      <c r="C865" s="10"/>
+      <c r="C865" s="11"/>
     </row>
     <row r="866">
-      <c r="C866" s="10"/>
+      <c r="C866" s="11"/>
     </row>
     <row r="867">
-      <c r="C867" s="10"/>
+      <c r="C867" s="11"/>
     </row>
     <row r="868">
-      <c r="C868" s="10"/>
+      <c r="C868" s="11"/>
     </row>
     <row r="869">
-      <c r="C869" s="10"/>
+      <c r="C869" s="11"/>
     </row>
     <row r="870">
-      <c r="C870" s="10"/>
+      <c r="C870" s="11"/>
     </row>
     <row r="871">
-      <c r="C871" s="10"/>
+      <c r="C871" s="11"/>
     </row>
     <row r="872">
-      <c r="C872" s="10"/>
+      <c r="C872" s="11"/>
     </row>
     <row r="873">
-      <c r="C873" s="10"/>
+      <c r="C873" s="11"/>
     </row>
     <row r="874">
-      <c r="C874" s="10"/>
+      <c r="C874" s="11"/>
     </row>
     <row r="875">
-      <c r="C875" s="10"/>
+      <c r="C875" s="11"/>
     </row>
     <row r="876">
-      <c r="C876" s="10"/>
+      <c r="C876" s="11"/>
     </row>
     <row r="877">
-      <c r="C877" s="10"/>
+      <c r="C877" s="11"/>
     </row>
     <row r="878">
-      <c r="C878" s="10"/>
+      <c r="C878" s="11"/>
     </row>
     <row r="879">
-      <c r="C879" s="10"/>
+      <c r="C879" s="11"/>
     </row>
     <row r="880">
-      <c r="C880" s="10"/>
+      <c r="C880" s="11"/>
     </row>
     <row r="881">
-      <c r="C881" s="10"/>
+      <c r="C881" s="11"/>
     </row>
     <row r="882">
-      <c r="C882" s="10"/>
+      <c r="C882" s="11"/>
     </row>
     <row r="883">
-      <c r="C883" s="10"/>
+      <c r="C883" s="11"/>
     </row>
     <row r="884">
-      <c r="C884" s="10"/>
+      <c r="C884" s="11"/>
     </row>
     <row r="885">
-      <c r="C885" s="10"/>
+      <c r="C885" s="11"/>
     </row>
     <row r="886">
-      <c r="C886" s="10"/>
+      <c r="C886" s="11"/>
     </row>
     <row r="887">
-      <c r="C887" s="10"/>
+      <c r="C887" s="11"/>
     </row>
     <row r="888">
-      <c r="C888" s="10"/>
+      <c r="C888" s="11"/>
     </row>
     <row r="889">
-      <c r="C889" s="10"/>
+      <c r="C889" s="11"/>
     </row>
     <row r="890">
-      <c r="C890" s="10"/>
+      <c r="C890" s="11"/>
     </row>
     <row r="891">
-      <c r="C891" s="10"/>
+      <c r="C891" s="11"/>
     </row>
     <row r="892">
-      <c r="C892" s="10"/>
+      <c r="C892" s="11"/>
     </row>
     <row r="893">
-      <c r="C893" s="10"/>
+      <c r="C893" s="11"/>
     </row>
     <row r="894">
-      <c r="C894" s="10"/>
+      <c r="C894" s="11"/>
     </row>
     <row r="895">
-      <c r="C895" s="10"/>
+      <c r="C895" s="11"/>
     </row>
     <row r="896">
-      <c r="C896" s="10"/>
+      <c r="C896" s="11"/>
     </row>
     <row r="897">
-      <c r="C897" s="10"/>
+      <c r="C897" s="11"/>
     </row>
     <row r="898">
-      <c r="C898" s="10"/>
+      <c r="C898" s="11"/>
     </row>
     <row r="899">
-      <c r="C899" s="10"/>
+      <c r="C899" s="11"/>
     </row>
     <row r="900">
-      <c r="C900" s="10"/>
+      <c r="C900" s="11"/>
     </row>
     <row r="901">
-      <c r="C901" s="10"/>
+      <c r="C901" s="11"/>
     </row>
     <row r="902">
-      <c r="C902" s="10"/>
+      <c r="C902" s="11"/>
     </row>
     <row r="903">
-      <c r="C903" s="10"/>
+      <c r="C903" s="11"/>
     </row>
     <row r="904">
-      <c r="C904" s="10"/>
+      <c r="C904" s="11"/>
     </row>
     <row r="905">
-      <c r="C905" s="10"/>
+      <c r="C905" s="11"/>
     </row>
     <row r="906">
-      <c r="C906" s="10"/>
+      <c r="C906" s="11"/>
     </row>
     <row r="907">
-      <c r="C907" s="10"/>
+      <c r="C907" s="11"/>
     </row>
     <row r="908">
-      <c r="C908" s="10"/>
+      <c r="C908" s="11"/>
     </row>
     <row r="909">
-      <c r="C909" s="10"/>
+      <c r="C909" s="11"/>
     </row>
     <row r="910">
-      <c r="C910" s="10"/>
+      <c r="C910" s="11"/>
     </row>
     <row r="911">
-      <c r="C911" s="10"/>
+      <c r="C911" s="11"/>
     </row>
     <row r="912">
-      <c r="C912" s="10"/>
+      <c r="C912" s="11"/>
     </row>
     <row r="913">
-      <c r="C913" s="10"/>
+      <c r="C913" s="11"/>
     </row>
     <row r="914">
-      <c r="C914" s="10"/>
+      <c r="C914" s="11"/>
     </row>
     <row r="915">
-      <c r="C915" s="10"/>
+      <c r="C915" s="11"/>
     </row>
     <row r="916">
-      <c r="C916" s="10"/>
+      <c r="C916" s="11"/>
     </row>
     <row r="917">
-      <c r="C917" s="10"/>
+      <c r="C917" s="11"/>
     </row>
     <row r="918">
-      <c r="C918" s="10"/>
+      <c r="C918" s="11"/>
     </row>
     <row r="919">
-      <c r="C919" s="10"/>
+      <c r="C919" s="11"/>
     </row>
     <row r="920">
-      <c r="C920" s="10"/>
+      <c r="C920" s="11"/>
     </row>
     <row r="921">
-      <c r="C921" s="10"/>
+      <c r="C921" s="11"/>
     </row>
     <row r="922">
-      <c r="C922" s="10"/>
+      <c r="C922" s="11"/>
     </row>
     <row r="923">
-      <c r="C923" s="10"/>
+      <c r="C923" s="11"/>
     </row>
     <row r="924">
-      <c r="C924" s="10"/>
+      <c r="C924" s="11"/>
     </row>
     <row r="925">
-      <c r="C925" s="10"/>
+      <c r="C925" s="11"/>
     </row>
     <row r="926">
-      <c r="C926" s="10"/>
+      <c r="C926" s="11"/>
     </row>
     <row r="927">
-      <c r="C927" s="10"/>
+      <c r="C927" s="11"/>
     </row>
     <row r="928">
-      <c r="C928" s="10"/>
+      <c r="C928" s="11"/>
     </row>
     <row r="929">
-      <c r="C929" s="10"/>
+      <c r="C929" s="11"/>
     </row>
     <row r="930">
-      <c r="C930" s="10"/>
+      <c r="C930" s="11"/>
     </row>
     <row r="931">
-      <c r="C931" s="10"/>
+      <c r="C931" s="11"/>
     </row>
     <row r="932">
-      <c r="C932" s="10"/>
+      <c r="C932" s="11"/>
     </row>
     <row r="933">
-      <c r="C933" s="10"/>
+      <c r="C933" s="11"/>
     </row>
     <row r="934">
-      <c r="C934" s="10"/>
+      <c r="C934" s="11"/>
     </row>
     <row r="935">
-      <c r="C935" s="10"/>
+      <c r="C935" s="11"/>
     </row>
     <row r="936">
-      <c r="C936" s="10"/>
+      <c r="C936" s="11"/>
     </row>
     <row r="937">
-      <c r="C937" s="10"/>
+      <c r="C937" s="11"/>
     </row>
     <row r="938">
-      <c r="C938" s="10"/>
+      <c r="C938" s="11"/>
     </row>
     <row r="939">
-      <c r="C939" s="10"/>
+      <c r="C939" s="11"/>
     </row>
     <row r="940">
-      <c r="C940" s="10"/>
+      <c r="C940" s="11"/>
     </row>
     <row r="941">
-      <c r="C941" s="10"/>
+      <c r="C941" s="11"/>
     </row>
     <row r="942">
-      <c r="C942" s="10"/>
+      <c r="C942" s="11"/>
     </row>
     <row r="943">
-      <c r="C943" s="10"/>
+      <c r="C943" s="11"/>
     </row>
     <row r="944">
-      <c r="C944" s="10"/>
+      <c r="C944" s="11"/>
     </row>
     <row r="945">
-      <c r="C945" s="10"/>
+      <c r="C945" s="11"/>
     </row>
     <row r="946">
-      <c r="C946" s="10"/>
+      <c r="C946" s="11"/>
     </row>
     <row r="947">
-      <c r="C947" s="10"/>
+      <c r="C947" s="11"/>
     </row>
     <row r="948">
-      <c r="C948" s="10"/>
+      <c r="C948" s="11"/>
     </row>
     <row r="949">
-      <c r="C949" s="10"/>
+      <c r="C949" s="11"/>
     </row>
     <row r="950">
-      <c r="C950" s="10"/>
+      <c r="C950" s="11"/>
     </row>
     <row r="951">
-      <c r="C951" s="10"/>
+      <c r="C951" s="11"/>
     </row>
     <row r="952">
-      <c r="C952" s="10"/>
+      <c r="C952" s="11"/>
     </row>
     <row r="953">
-      <c r="C953" s="10"/>
+      <c r="C953" s="11"/>
     </row>
     <row r="954">
-      <c r="C954" s="10"/>
+      <c r="C954" s="11"/>
     </row>
     <row r="955">
-      <c r="C955" s="10"/>
+      <c r="C955" s="11"/>
     </row>
     <row r="956">
-      <c r="C956" s="10"/>
+      <c r="C956" s="11"/>
     </row>
     <row r="957">
-      <c r="C957" s="10"/>
+      <c r="C957" s="11"/>
     </row>
     <row r="958">
-      <c r="C958" s="10"/>
+      <c r="C958" s="11"/>
     </row>
     <row r="959">
-      <c r="C959" s="10"/>
+      <c r="C959" s="11"/>
     </row>
     <row r="960">
-      <c r="C960" s="10"/>
+      <c r="C960" s="11"/>
     </row>
     <row r="961">
-      <c r="C961" s="10"/>
+      <c r="C961" s="11"/>
     </row>
     <row r="962">
-      <c r="C962" s="10"/>
+      <c r="C962" s="11"/>
     </row>
     <row r="963">
-      <c r="C963" s="10"/>
+      <c r="C963" s="11"/>
     </row>
     <row r="964">
-      <c r="C964" s="10"/>
+      <c r="C964" s="11"/>
     </row>
     <row r="965">
-      <c r="C965" s="10"/>
+      <c r="C965" s="11"/>
     </row>
     <row r="966">
-      <c r="C966" s="10"/>
+      <c r="C966" s="11"/>
     </row>
     <row r="967">
-      <c r="C967" s="10"/>
+      <c r="C967" s="11"/>
     </row>
     <row r="968">
-      <c r="C968" s="10"/>
+      <c r="C968" s="11"/>
     </row>
     <row r="969">
-      <c r="C969" s="10"/>
+      <c r="C969" s="11"/>
     </row>
     <row r="970">
-      <c r="C970" s="10"/>
+      <c r="C970" s="11"/>
     </row>
     <row r="971">
-      <c r="C971" s="10"/>
+      <c r="C971" s="11"/>
     </row>
     <row r="972">
-      <c r="C972" s="10"/>
+      <c r="C972" s="11"/>
     </row>
     <row r="973">
-      <c r="C973" s="10"/>
+      <c r="C973" s="11"/>
     </row>
     <row r="974">
-      <c r="C974" s="10"/>
+      <c r="C974" s="11"/>
     </row>
     <row r="975">
-      <c r="C975" s="10"/>
+      <c r="C975" s="11"/>
     </row>
     <row r="976">
-      <c r="C976" s="10"/>
+      <c r="C976" s="11"/>
     </row>
     <row r="977">
-      <c r="C977" s="10"/>
+      <c r="C977" s="11"/>
     </row>
     <row r="978">
-      <c r="C978" s="10"/>
+      <c r="C978" s="11"/>
     </row>
     <row r="979">
-      <c r="C979" s="10"/>
+      <c r="C979" s="11"/>
     </row>
     <row r="980">
-      <c r="C980" s="10"/>
+      <c r="C980" s="11"/>
     </row>
     <row r="981">
-      <c r="C981" s="10"/>
+      <c r="C981" s="11"/>
     </row>
     <row r="982">
-      <c r="C982" s="10"/>
+      <c r="C982" s="11"/>
     </row>
     <row r="983">
-      <c r="C983" s="10"/>
+      <c r="C983" s="11"/>
     </row>
     <row r="984">
-      <c r="C984" s="10"/>
+      <c r="C984" s="11"/>
     </row>
     <row r="985">
-      <c r="C985" s="10"/>
+      <c r="C985" s="11"/>
     </row>
     <row r="986">
-      <c r="C986" s="10"/>
+      <c r="C986" s="11"/>
     </row>
     <row r="987">
-      <c r="C987" s="10"/>
+      <c r="C987" s="11"/>
     </row>
     <row r="988">
-      <c r="C988" s="10"/>
+      <c r="C988" s="11"/>
     </row>
     <row r="989">
-      <c r="C989" s="10"/>
+      <c r="C989" s="11"/>
     </row>
     <row r="990">
-      <c r="C990" s="10"/>
+      <c r="C990" s="11"/>
     </row>
     <row r="991">
-      <c r="C991" s="10"/>
+      <c r="C991" s="11"/>
     </row>
     <row r="992">
-      <c r="C992" s="10"/>
+      <c r="C992" s="11"/>
     </row>
     <row r="993">
-      <c r="C993" s="10"/>
+      <c r="C993" s="11"/>
     </row>
     <row r="994">
-      <c r="C994" s="10"/>
+      <c r="C994" s="11"/>
     </row>
     <row r="995">
-      <c r="C995" s="10"/>
+      <c r="C995" s="11"/>
     </row>
     <row r="996">
-      <c r="C996" s="10"/>
+      <c r="C996" s="11"/>
     </row>
     <row r="997">
-      <c r="C997" s="10"/>
+      <c r="C997" s="11"/>
     </row>
     <row r="998">
-      <c r="C998" s="10"/>
+      <c r="C998" s="11"/>
     </row>
     <row r="999">
-      <c r="C999" s="10"/>
+      <c r="C999" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
